--- a/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
@@ -662,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.62</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="U4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>15</v>
@@ -1022,16 +1022,16 @@
         <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.67</v>
@@ -1290,10 +1290,10 @@
         <v>5.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
         <v>13</v>
@@ -1504,7 +1504,7 @@
         <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
@@ -1540,10 +1540,10 @@
         <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -1564,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
@@ -1573,19 +1573,19 @@
         <v>301</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
         <v>151</v>
       </c>
       <c r="AI9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O11" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1867,31 +1867,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="O12" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1900,22 +1900,22 @@
         <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
         <v>9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -1924,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
@@ -1939,22 +1939,22 @@
         <v>501</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2496,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2972,10 +2972,10 @@
         <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.67</v>
@@ -3948,22 +3948,22 @@
         <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O29" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -4076,16 +4076,16 @@
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4183,13 +4183,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4439,7 +4439,7 @@
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
         <v>1.22</v>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
@@ -4575,13 +4575,13 @@
         <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T34" t="n">
         <v>9</v>
@@ -4602,7 +4602,7 @@
         <v>35</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA34" t="n">
         <v>6.6</v>
@@ -4632,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -4791,7 +4791,7 @@
         <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4829,7 +4829,7 @@
         <v>8</v>
       </c>
       <c r="W36" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -4841,10 +4841,10 @@
         <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="n">
         <v>120</v>
@@ -4903,19 +4903,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -4936,10 +4936,10 @@
         <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
@@ -4957,22 +4957,22 @@
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
         <v>9</v>
       </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
         <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -5269,19 +5269,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.44</v>
@@ -5290,22 +5290,22 @@
         <v>2.63</v>
       </c>
       <c r="N40" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
         <v>5.5</v>
@@ -5317,7 +5317,7 @@
         <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -5341,7 +5341,7 @@
         <v>1250</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>23</v>
@@ -5635,49 +5635,49 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J43" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="P43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="R43" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U43" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V43" t="n">
         <v>9.25</v>
@@ -5686,28 +5686,28 @@
         <v>28</v>
       </c>
       <c r="X43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF43" t="n">
         <v>14.5</v>
@@ -5716,13 +5716,13 @@
         <v>10</v>
       </c>
       <c r="AH43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI43" t="n">
         <v>24</v>
       </c>
       <c r="AJ43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -5790,13 +5790,13 @@
         <v>2.37</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S44" t="n">
         <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U44" t="n">
         <v>7.8</v>
@@ -5820,7 +5820,7 @@
         <v>6.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="n">
         <v>100</v>
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J45" t="n">
         <v>1.07</v>
@@ -5912,16 +5912,16 @@
         <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T45" t="n">
         <v>12</v>
       </c>
       <c r="U45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V45" t="n">
         <v>17</v>
@@ -5954,19 +5954,19 @@
         <v>6</v>
       </c>
       <c r="AF45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG45" t="n">
         <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI45" t="n">
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6001,19 +6001,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.33</v>
@@ -6049,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
         <v>21</v>
@@ -6073,7 +6073,7 @@
         <v>251</v>
       </c>
       <c r="AE46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
         <v>13</v>
@@ -6126,7 +6126,7 @@
         <v>1.22</v>
       </c>
       <c r="H47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
         <v>13</v>
@@ -6138,22 +6138,22 @@
         <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O47" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R47" t="n">
         <v>2.25</v>
@@ -6165,7 +6165,7 @@
         <v>7</v>
       </c>
       <c r="U47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
         <v>9.5</v>
@@ -6180,13 +6180,13 @@
         <v>34</v>
       </c>
       <c r="Z47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA47" t="n">
         <v>12</v>
       </c>
-      <c r="AA47" t="n">
-        <v>11</v>
-      </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>81</v>
@@ -6195,7 +6195,7 @@
         <v>101</v>
       </c>
       <c r="AE47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF47" t="n">
         <v>51</v>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H50" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J50" t="n">
         <v>1.05</v>
@@ -6507,7 +6507,7 @@
         <v>1.26</v>
       </c>
       <c r="M50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N50" t="n">
         <v>1.78</v>
@@ -6519,31 +6519,31 @@
         <v>1.37</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S50" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T50" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U50" t="n">
         <v>7.5</v>
       </c>
       <c r="V50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W50" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
       </c>
       <c r="Y50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
         <v>8.5</v>
@@ -6558,25 +6558,25 @@
         <v>90</v>
       </c>
       <c r="AD50" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE50" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI50" t="n">
         <v>65</v>
       </c>
       <c r="AJ50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="J53" t="n">
         <v>1.1</v>
@@ -6894,52 +6894,52 @@
         <v>1.7</v>
       </c>
       <c r="T53" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U53" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V53" t="n">
         <v>12.5</v>
       </c>
       <c r="W53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z53" t="n">
         <v>6.2</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB53" t="n">
         <v>20</v>
       </c>
       <c r="AC53" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD53" t="n">
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF53" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG53" t="n">
         <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ53" t="n">
         <v>45</v>
@@ -7016,7 +7016,7 @@
         <v>1.9</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U54" t="n">
         <v>10</v>
@@ -7031,7 +7031,7 @@
         <v>17.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z54" t="n">
         <v>7.3</v>
@@ -7049,10 +7049,10 @@
         <v>700</v>
       </c>
       <c r="AE54" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG54" t="n">
         <v>13.5</v>
@@ -7099,13 +7099,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.02</v>
@@ -7120,25 +7120,25 @@
         <v>6</v>
       </c>
       <c r="N55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O55" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U55" t="n">
         <v>7.5</v>
@@ -7156,7 +7156,7 @@
         <v>23</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA55" t="n">
         <v>12</v>
@@ -7171,16 +7171,16 @@
         <v>251</v>
       </c>
       <c r="AE55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG55" t="n">
         <v>26</v>
       </c>
-      <c r="AF55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>23</v>
-      </c>
       <c r="AH55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI55" t="n">
         <v>51</v>
@@ -7221,13 +7221,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -7242,16 +7242,16 @@
         <v>5.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O56" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P56" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R56" t="n">
         <v>1.44</v>
@@ -7260,10 +7260,10 @@
         <v>2.63</v>
       </c>
       <c r="T56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V56" t="n">
         <v>11</v>
@@ -7272,13 +7272,13 @@
         <v>29</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
         <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
@@ -7290,7 +7290,7 @@
         <v>29</v>
       </c>
       <c r="AD56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE56" t="n">
         <v>13</v>
@@ -7302,13 +7302,13 @@
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
         <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -7596,10 +7596,10 @@
         <v>6.25</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
         <v>1.3</v>
@@ -7608,10 +7608,10 @@
         <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P59" t="n">
         <v>1.4</v>
@@ -7723,7 +7723,7 @@
         <v>1.34</v>
       </c>
       <c r="M60" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N60" t="n">
         <v>1.98</v>
@@ -7744,25 +7744,25 @@
         <v>1.82</v>
       </c>
       <c r="T60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U60" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V60" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W60" t="n">
         <v>37</v>
       </c>
       <c r="X60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y60" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6.2</v>
@@ -7777,19 +7777,19 @@
         <v>600</v>
       </c>
       <c r="AE60" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH60" t="n">
         <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ60" t="n">
         <v>32</v>
@@ -8258,7 +8258,7 @@
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE64" t="n">
         <v>8</v>
@@ -8564,10 +8564,10 @@
         <v>3.6</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
         <v>1.29</v>
@@ -8576,10 +8576,10 @@
         <v>3.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O67" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -9428,7 +9428,7 @@
         <v>2.2</v>
       </c>
       <c r="T74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U74" t="n">
         <v>14.5</v>
@@ -9440,10 +9440,10 @@
         <v>32</v>
       </c>
       <c r="X74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z74" t="n">
         <v>11.5</v>
@@ -9461,7 +9461,7 @@
         <v>200</v>
       </c>
       <c r="AE74" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF74" t="n">
         <v>9.5</v>
@@ -10127,7 +10127,7 @@
         <v>3.5</v>
       </c>
       <c r="I80" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J80" t="n">
         <v>1.06</v>
@@ -10136,16 +10136,16 @@
         <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N80" t="n">
         <v>2.05</v>
       </c>
       <c r="O80" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P80" t="n">
         <v>1.44</v>
@@ -10154,10 +10154,10 @@
         <v>2.63</v>
       </c>
       <c r="R80" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S80" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T80" t="n">
         <v>6.5</v>
@@ -10166,10 +10166,10 @@
         <v>8</v>
       </c>
       <c r="V80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X80" t="n">
         <v>15</v>
@@ -10178,7 +10178,7 @@
         <v>29</v>
       </c>
       <c r="Z80" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA80" t="n">
         <v>7</v>
@@ -10187,10 +10187,10 @@
         <v>17</v>
       </c>
       <c r="AC80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD80" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE80" t="n">
         <v>11</v>
@@ -10371,7 +10371,7 @@
         <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J82" t="n">
         <v>1.03</v>
@@ -10392,16 +10392,16 @@
         <v>2.25</v>
       </c>
       <c r="P82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S82" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T82" t="n">
         <v>12</v>
@@ -10422,22 +10422,22 @@
         <v>23</v>
       </c>
       <c r="Z82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA82" t="n">
         <v>7</v>
       </c>
       <c r="AB82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC82" t="n">
         <v>34</v>
       </c>
       <c r="AD82" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF82" t="n">
         <v>15</v>
@@ -10449,7 +10449,7 @@
         <v>26</v>
       </c>
       <c r="AI82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ82" t="n">
         <v>23</v>
@@ -10487,13 +10487,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
@@ -10508,10 +10508,10 @@
         <v>4.5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P83" t="n">
         <v>1.3</v>
@@ -10520,13 +10520,13 @@
         <v>3.4</v>
       </c>
       <c r="R83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U83" t="n">
         <v>10</v>
@@ -10535,7 +10535,7 @@
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X83" t="n">
         <v>13</v>
@@ -10550,13 +10550,13 @@
         <v>7</v>
       </c>
       <c r="AB83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC83" t="n">
         <v>41</v>
       </c>
       <c r="AD83" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE83" t="n">
         <v>15</v>
@@ -10565,7 +10565,7 @@
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH83" t="n">
         <v>41</v>
@@ -11118,10 +11118,10 @@
         <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O88" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
@@ -11234,16 +11234,16 @@
         <v>13</v>
       </c>
       <c r="L89" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M89" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N89" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O89" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P89" t="n">
         <v>1.33</v>
@@ -11832,10 +11832,10 @@
         <v>2.8</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J94" t="n">
         <v>1.04</v>
@@ -11850,10 +11850,10 @@
         <v>4.33</v>
       </c>
       <c r="N94" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P94" t="n">
         <v>1.33</v>
@@ -11889,7 +11889,7 @@
         <v>13</v>
       </c>
       <c r="AA94" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
         <v>12</v>
@@ -12073,35 +12073,35 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N96" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O96" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S96" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T96" t="n">
         <v>9.25</v>
@@ -12110,7 +12110,7 @@
         <v>13</v>
       </c>
       <c r="V96" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W96" t="n">
         <v>26</v>
@@ -12122,10 +12122,10 @@
         <v>25</v>
       </c>
       <c r="Z96" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB96" t="n">
         <v>12</v>
@@ -12134,25 +12134,25 @@
         <v>50</v>
       </c>
       <c r="AD96" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE96" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF96" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG96" t="n">
         <v>10</v>
       </c>
       <c r="AH96" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
@@ -12314,10 +12314,10 @@
         <v>2.45</v>
       </c>
       <c r="J98" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K98" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L98" t="n">
         <v>1.33</v>
@@ -12326,10 +12326,10 @@
         <v>3.25</v>
       </c>
       <c r="N98" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O98" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P98" t="n">
         <v>1.44</v>
@@ -12427,13 +12427,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J99" t="n">
         <v>1.1</v>
@@ -12472,7 +12472,7 @@
         <v>13</v>
       </c>
       <c r="V99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W99" t="n">
         <v>29</v>
@@ -12502,13 +12502,13 @@
         <v>7</v>
       </c>
       <c r="AF99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI99" t="n">
         <v>23</v>
@@ -12561,13 +12561,13 @@
         <v>1.07</v>
       </c>
       <c r="K100" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N100" t="n">
         <v>2.1</v>
@@ -12671,13 +12671,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J101" t="n">
         <v>1.07</v>
@@ -12692,10 +12692,10 @@
         <v>3.25</v>
       </c>
       <c r="N101" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O101" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12713,7 +12713,7 @@
         <v>6.5</v>
       </c>
       <c r="U101" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V101" t="n">
         <v>9</v>
@@ -12722,13 +12722,13 @@
         <v>15</v>
       </c>
       <c r="X101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y101" t="n">
         <v>29</v>
       </c>
       <c r="Z101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
@@ -12752,7 +12752,7 @@
         <v>15</v>
       </c>
       <c r="AH101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI101" t="n">
         <v>41</v>
@@ -12915,67 +12915,67 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I103" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="J103" t="n">
         <v>1.09</v>
       </c>
       <c r="K103" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L103" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M103" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="N103" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O103" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P103" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R103" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S103" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T103" t="n">
         <v>9.5</v>
       </c>
       <c r="U103" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V103" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W103" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X103" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y103" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z103" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA103" t="n">
         <v>6.1</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>6</v>
       </c>
       <c r="AB103" t="n">
         <v>16</v>
@@ -12987,22 +12987,22 @@
         <v>800</v>
       </c>
       <c r="AE103" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AF103" t="n">
         <v>8.75</v>
       </c>
       <c r="AG103" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI103" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ103" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -13043,7 +13043,7 @@
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J104" t="n">
         <v>1.07</v>
@@ -13159,19 +13159,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I105" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J105" t="n">
         <v>1.09</v>
       </c>
       <c r="K105" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L105" t="n">
         <v>1.37</v>
@@ -13192,16 +13192,16 @@
         <v>2.37</v>
       </c>
       <c r="R105" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S105" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T105" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U105" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V105" t="n">
         <v>10.5</v>
@@ -13216,34 +13216,34 @@
         <v>35</v>
       </c>
       <c r="Z105" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA105" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB105" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC105" t="n">
         <v>60</v>
       </c>
       <c r="AD105" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE105" t="n">
         <v>7.4</v>
       </c>
       <c r="AF105" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH105" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ105" t="n">
         <v>30</v>
@@ -13287,88 +13287,88 @@
         <v>3.35</v>
       </c>
       <c r="I106" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K106" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="L106" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M106" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="N106" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P106" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S106" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T106" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U106" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V106" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W106" t="n">
         <v>14</v>
       </c>
       <c r="X106" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y106" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z106" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AA106" t="n">
         <v>6.6</v>
       </c>
       <c r="AB106" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC106" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD106" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE106" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG106" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH106" t="n">
         <v>75</v>
       </c>
       <c r="AI106" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="107">
@@ -13409,7 +13409,7 @@
         <v>3.1</v>
       </c>
       <c r="I107" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J107" t="n">
         <v>1.09</v>
@@ -13421,13 +13421,13 @@
         <v>1.42</v>
       </c>
       <c r="M107" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N107" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O107" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P107" t="n">
         <v>1.52</v>
@@ -13442,10 +13442,10 @@
         <v>1.78</v>
       </c>
       <c r="T107" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U107" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V107" t="n">
         <v>9.25</v>
@@ -13454,10 +13454,10 @@
         <v>22</v>
       </c>
       <c r="X107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y107" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z107" t="n">
         <v>6.2</v>
@@ -13475,19 +13475,19 @@
         <v>900</v>
       </c>
       <c r="AE107" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF107" t="n">
         <v>15</v>
       </c>
       <c r="AG107" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH107" t="n">
         <v>40</v>
       </c>
       <c r="AI107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ107" t="n">
         <v>45</v>
@@ -13528,46 +13528,46 @@
         <v>2.7</v>
       </c>
       <c r="H108" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I108" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K108" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L108" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M108" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O108" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P108" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R108" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S108" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T108" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="U108" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="V108" t="n">
         <v>9.75</v>
@@ -13576,40 +13576,40 @@
         <v>32</v>
       </c>
       <c r="X108" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y108" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z108" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA108" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB108" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC108" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD108" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE108" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG108" t="n">
         <v>9.25</v>
       </c>
       <c r="AH108" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI108" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ108" t="n">
         <v>25</v>
@@ -13659,10 +13659,10 @@
         <v>1.08</v>
       </c>
       <c r="K109" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L109" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M109" t="n">
         <v>2.92</v>
@@ -13680,16 +13680,16 @@
         <v>2.5</v>
       </c>
       <c r="R109" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T109" t="n">
         <v>6.1</v>
       </c>
       <c r="U109" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="V109" t="n">
         <v>8.25</v>
@@ -13704,7 +13704,7 @@
         <v>30</v>
       </c>
       <c r="Z109" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA109" t="n">
         <v>6.6</v>
@@ -13769,13 +13769,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I110" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J110" t="n">
         <v>1.06</v>
@@ -13802,22 +13802,22 @@
         <v>2.65</v>
       </c>
       <c r="R110" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S110" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T110" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U110" t="n">
         <v>40</v>
       </c>
       <c r="V110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W110" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X110" t="n">
         <v>90</v>
@@ -13832,7 +13832,7 @@
         <v>8.25</v>
       </c>
       <c r="AB110" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC110" t="n">
         <v>150</v>
@@ -13844,7 +13844,7 @@
         <v>5.7</v>
       </c>
       <c r="AF110" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG110" t="n">
         <v>8.5</v>
@@ -14028,10 +14028,10 @@
         <v>11</v>
       </c>
       <c r="L112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N112" t="n">
         <v>1.93</v>
@@ -14156,10 +14156,10 @@
         <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -14263,13 +14263,13 @@
         <v>3.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J114" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L114" t="n">
         <v>1.44</v>
@@ -14278,28 +14278,28 @@
         <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P114" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R114" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S114" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T114" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V114" t="n">
         <v>10</v>
@@ -14311,16 +14311,16 @@
         <v>21</v>
       </c>
       <c r="Y114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z114" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6</v>
       </c>
       <c r="AB114" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
         <v>67</v>
@@ -14329,19 +14329,19 @@
         <v>351</v>
       </c>
       <c r="AE114" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF114" t="n">
         <v>15</v>
       </c>
       <c r="AG114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH114" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI114" t="n">
         <v>34</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>29</v>
       </c>
       <c r="AJ114" t="n">
         <v>41</v>
@@ -14407,7 +14407,7 @@
         <v>1.57</v>
       </c>
       <c r="S115" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="T115" t="n">
         <v>9.75</v>
@@ -14603,13 +14603,13 @@
         </is>
       </c>
       <c r="G117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.15</v>
       </c>
-      <c r="H117" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I117" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -14620,16 +14620,16 @@
         <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="O117" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="P117" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="R117" t="n">
         <v>1.86</v>
@@ -14638,46 +14638,46 @@
         <v>1.85</v>
       </c>
       <c r="T117" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="U117" t="n">
         <v>13</v>
       </c>
       <c r="V117" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="W117" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X117" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y117" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z117" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB117" t="n">
         <v>12</v>
       </c>
       <c r="AC117" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AD117" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AE117" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AF117" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG117" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AH117" t="n">
         <v>16</v>
@@ -14686,7 +14686,7 @@
         <v>15</v>
       </c>
       <c r="AJ117" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
@@ -15187,13 +15187,13 @@
         <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J122" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L122" t="n">
         <v>1.2</v>
@@ -15202,10 +15202,10 @@
         <v>4.33</v>
       </c>
       <c r="N122" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O122" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P122" t="n">
         <v>1.3</v>
@@ -15256,7 +15256,7 @@
         <v>21</v>
       </c>
       <c r="AF122" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG122" t="n">
         <v>26</v>
@@ -15437,7 +15437,7 @@
         <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L124" t="n">
         <v>1.2</v>
@@ -15550,7 +15550,7 @@
         <v>3.05</v>
       </c>
       <c r="H125" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I125" t="n">
         <v>2.12</v>
@@ -15578,10 +15578,10 @@
         <v>2.4</v>
       </c>
       <c r="T125" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U125" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V125" t="n">
         <v>10.75</v>
@@ -15593,13 +15593,13 @@
         <v>23</v>
       </c>
       <c r="Y125" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z125" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB125" t="n">
         <v>11</v>
@@ -15608,13 +15608,13 @@
         <v>35</v>
       </c>
       <c r="AD125" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE125" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF125" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG125" t="n">
         <v>8.75</v>
@@ -15626,7 +15626,7 @@
         <v>15</v>
       </c>
       <c r="AJ125" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -15696,16 +15696,16 @@
         <v>1.91</v>
       </c>
       <c r="T126" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U126" t="n">
         <v>7.8</v>
-      </c>
-      <c r="U126" t="n">
-        <v>7.9</v>
       </c>
       <c r="V126" t="n">
         <v>8</v>
       </c>
       <c r="W126" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X126" t="n">
         <v>11.75</v>
@@ -15714,13 +15714,13 @@
         <v>23</v>
       </c>
       <c r="Z126" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA126" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB126" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC126" t="n">
         <v>65</v>
@@ -15729,7 +15729,7 @@
         <v>450</v>
       </c>
       <c r="AE126" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF126" t="n">
         <v>32</v>
@@ -15738,13 +15738,13 @@
         <v>16.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI126" t="n">
         <v>50</v>
       </c>
       <c r="AJ126" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -15782,7 +15782,7 @@
         <v>1.65</v>
       </c>
       <c r="H127" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I127" t="n">
         <v>4.9</v>
@@ -15832,7 +15832,7 @@
         <v>24</v>
       </c>
       <c r="Z127" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA127" t="n">
         <v>7</v>
@@ -15980,7 +15980,7 @@
         <v>21</v>
       </c>
       <c r="AJ128" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
@@ -16064,7 +16064,7 @@
         <v>27</v>
       </c>
       <c r="Z129" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA129" t="n">
         <v>6.7</v>
@@ -16164,7 +16164,7 @@
         <v>1.9</v>
       </c>
       <c r="T130" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U130" t="n">
         <v>8</v>
@@ -16173,13 +16173,13 @@
         <v>7.9</v>
       </c>
       <c r="W130" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X130" t="n">
         <v>12.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z130" t="n">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>15</v>
       </c>
       <c r="AC130" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD130" t="n">
         <v>500</v>
@@ -16200,7 +16200,7 @@
         <v>13.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG130" t="n">
         <v>16</v>
@@ -16491,19 +16491,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L133" t="n">
         <v>1.29</v>
@@ -16539,7 +16539,7 @@
         <v>8.5</v>
       </c>
       <c r="W133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X133" t="n">
         <v>15</v>
@@ -16982,10 +16982,10 @@
         <v>1.85</v>
       </c>
       <c r="H137" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I137" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J137" t="n">
         <v>1.04</v>
@@ -16994,10 +16994,10 @@
         <v>13</v>
       </c>
       <c r="L137" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M137" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N137" t="n">
         <v>1.7</v>
@@ -17036,10 +17036,10 @@
         <v>21</v>
       </c>
       <c r="Z137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA137" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB137" t="n">
         <v>13</v>
@@ -17063,10 +17063,10 @@
         <v>41</v>
       </c>
       <c r="AI137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
@@ -17476,22 +17476,22 @@
         <v>7</v>
       </c>
       <c r="J141" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L141" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M141" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N141" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O141" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P141" t="n">
         <v>1.44</v>
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>3.3</v>
@@ -18086,22 +18086,22 @@
         <v>4.1</v>
       </c>
       <c r="J146" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M146" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N146" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -18125,7 +18125,7 @@
         <v>9</v>
       </c>
       <c r="W146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X146" t="n">
         <v>17</v>
@@ -18140,16 +18140,16 @@
         <v>6.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
         <v>51</v>
       </c>
       <c r="AD146" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF146" t="n">
         <v>21</v>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J147" t="n">
         <v>1.05</v>
@@ -18238,7 +18238,7 @@
         <v>1.95</v>
       </c>
       <c r="T147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U147" t="n">
         <v>21</v>
@@ -18256,7 +18256,7 @@
         <v>41</v>
       </c>
       <c r="Z147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA147" t="n">
         <v>6.5</v>
@@ -18271,7 +18271,7 @@
         <v>251</v>
       </c>
       <c r="AE147" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF147" t="n">
         <v>9</v>
@@ -18280,7 +18280,7 @@
         <v>8.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI147" t="n">
         <v>15</v>
@@ -18324,10 +18324,10 @@
         <v>5.25</v>
       </c>
       <c r="H148" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I148" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J148" t="n">
         <v>1.04</v>
@@ -18342,28 +18342,28 @@
         <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S148" t="n">
         <v>1.95</v>
       </c>
-      <c r="S148" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U148" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V148" t="n">
         <v>17</v>
@@ -18378,10 +18378,10 @@
         <v>41</v>
       </c>
       <c r="Z148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB148" t="n">
         <v>17</v>
@@ -18390,10 +18390,10 @@
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF148" t="n">
         <v>7.5</v>
@@ -18408,7 +18408,7 @@
         <v>13</v>
       </c>
       <c r="AJ148" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
@@ -18455,13 +18455,13 @@
         <v>1.07</v>
       </c>
       <c r="K149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L149" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M149" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N149" t="n">
         <v>2.1</v>
@@ -18577,7 +18577,7 @@
         <v>1.07</v>
       </c>
       <c r="K150" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L150" t="n">
         <v>1.36</v>
@@ -18708,10 +18708,10 @@
         <v>3.25</v>
       </c>
       <c r="N151" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O151" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P151" t="n">
         <v>1.44</v>
@@ -18821,19 +18821,19 @@
         <v>1.06</v>
       </c>
       <c r="K152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L152" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M152" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N152" t="n">
         <v>2.05</v>
       </c>
       <c r="O152" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P152" t="n">
         <v>1.44</v>
@@ -18842,16 +18842,16 @@
         <v>2.63</v>
       </c>
       <c r="R152" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S152" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T152" t="n">
         <v>8.5</v>
       </c>
       <c r="U152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V152" t="n">
         <v>10</v>
@@ -18866,7 +18866,7 @@
         <v>29</v>
       </c>
       <c r="Z152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA152" t="n">
         <v>6</v>
@@ -18878,7 +18878,7 @@
         <v>51</v>
       </c>
       <c r="AD152" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE152" t="n">
         <v>9</v>
@@ -18931,13 +18931,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I153" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J153" t="n">
         <v>1.08</v>
@@ -18970,13 +18970,13 @@
         <v>1.8</v>
       </c>
       <c r="T153" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U153" t="n">
         <v>10</v>
       </c>
       <c r="V153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W153" t="n">
         <v>21</v>
@@ -19062,10 +19062,10 @@
         <v>2.88</v>
       </c>
       <c r="J154" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K154" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L154" t="n">
         <v>1.29</v>
@@ -19074,10 +19074,10 @@
         <v>3.5</v>
       </c>
       <c r="N154" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O154" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P154" t="n">
         <v>1.4</v>
@@ -19175,19 +19175,19 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>3.25</v>
       </c>
       <c r="I155" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J155" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K155" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L155" t="n">
         <v>1.29</v>
@@ -19217,19 +19217,19 @@
         <v>8</v>
       </c>
       <c r="U155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V155" t="n">
         <v>9.5</v>
       </c>
       <c r="W155" t="n">
+        <v>21</v>
+      </c>
+      <c r="X155" t="n">
         <v>19</v>
       </c>
-      <c r="X155" t="n">
-        <v>17</v>
-      </c>
       <c r="Y155" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z155" t="n">
         <v>10</v>
@@ -19247,13 +19247,13 @@
         <v>600</v>
       </c>
       <c r="AE155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF155" t="n">
         <v>17</v>
       </c>
       <c r="AG155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH155" t="n">
         <v>34</v>
@@ -19419,13 +19419,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J157" t="n">
         <v>1.08</v>
@@ -19461,10 +19461,10 @@
         <v>6.5</v>
       </c>
       <c r="U157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W157" t="n">
         <v>23</v>
@@ -19476,7 +19476,7 @@
         <v>41</v>
       </c>
       <c r="Z157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA157" t="n">
         <v>6.5</v>
@@ -19491,10 +19491,10 @@
         <v>1250</v>
       </c>
       <c r="AE157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG157" t="n">
         <v>12</v>
@@ -19503,7 +19503,7 @@
         <v>29</v>
       </c>
       <c r="AI157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ157" t="n">
         <v>41</v>
@@ -19663,19 +19663,19 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H159" t="n">
         <v>3.75</v>
       </c>
       <c r="I159" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J159" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K159" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L159" t="n">
         <v>1.33</v>
@@ -19735,10 +19735,10 @@
         <v>700</v>
       </c>
       <c r="AE159" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG159" t="n">
         <v>13</v>
@@ -19747,7 +19747,7 @@
         <v>41</v>
       </c>
       <c r="AI159" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ159" t="n">
         <v>41</v>
@@ -19785,13 +19785,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H160" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I160" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="J160" t="n">
         <v>1.02</v>
@@ -19806,16 +19806,16 @@
         <v>5.5</v>
       </c>
       <c r="N160" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O160" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P160" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q160" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R160" t="n">
         <v>1.44</v>
@@ -19824,28 +19824,28 @@
         <v>2.63</v>
       </c>
       <c r="T160" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U160" t="n">
+        <v>17</v>
+      </c>
+      <c r="V160" t="n">
+        <v>10</v>
+      </c>
+      <c r="W160" t="n">
+        <v>26</v>
+      </c>
+      <c r="X160" t="n">
         <v>19</v>
       </c>
-      <c r="V160" t="n">
-        <v>11</v>
-      </c>
-      <c r="W160" t="n">
-        <v>34</v>
-      </c>
-      <c r="X160" t="n">
+      <c r="Y160" t="n">
         <v>21</v>
-      </c>
-      <c r="Y160" t="n">
-        <v>23</v>
       </c>
       <c r="Z160" t="n">
         <v>19</v>
       </c>
       <c r="AA160" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB160" t="n">
         <v>11</v>
@@ -19857,22 +19857,22 @@
         <v>101</v>
       </c>
       <c r="AE160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF160" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH160" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ160" t="n">
         <v>21</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -20276,7 +20276,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I164" t="n">
         <v>2.27</v>
@@ -20312,19 +20312,19 @@
         <v>2.12</v>
       </c>
       <c r="T164" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U164" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V164" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W164" t="n">
         <v>40</v>
       </c>
       <c r="X164" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y164" t="n">
         <v>32</v>
@@ -20333,19 +20333,19 @@
         <v>8</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB164" t="n">
         <v>13.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD164" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE164" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF164" t="n">
         <v>12.5</v>
@@ -20357,10 +20357,10 @@
         <v>25</v>
       </c>
       <c r="AI164" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ164" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165">
@@ -20761,19 +20761,19 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H168" t="n">
         <v>3.6</v>
       </c>
       <c r="I168" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J168" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L168" t="n">
         <v>1.36</v>
@@ -20797,7 +20797,7 @@
         <v>2.1</v>
       </c>
       <c r="S168" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -20809,7 +20809,7 @@
         <v>8.5</v>
       </c>
       <c r="W168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X168" t="n">
         <v>15</v>
@@ -20818,7 +20818,7 @@
         <v>34</v>
       </c>
       <c r="Z168" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA168" t="n">
         <v>7</v>
@@ -20830,7 +20830,7 @@
         <v>67</v>
       </c>
       <c r="AD168" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE168" t="n">
         <v>12</v>
@@ -20892,10 +20892,10 @@
         <v>2.8</v>
       </c>
       <c r="J169" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L169" t="n">
         <v>1.33</v>
@@ -20904,10 +20904,10 @@
         <v>3.25</v>
       </c>
       <c r="N169" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O169" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P169" t="n">
         <v>1.44</v>
@@ -21020,16 +21020,16 @@
         <v>11</v>
       </c>
       <c r="L170" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M170" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N170" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O170" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P170" t="n">
         <v>1.4</v>
@@ -21148,10 +21148,10 @@
         <v>2.75</v>
       </c>
       <c r="N171" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O171" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P171" t="n">
         <v>1.5</v>
@@ -21386,16 +21386,16 @@
         <v>11</v>
       </c>
       <c r="L173" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M173" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O173" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P173" t="n">
         <v>1.4</v>
@@ -21615,19 +21615,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H175" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I175" t="n">
         <v>5.75</v>
       </c>
       <c r="J175" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L175" t="n">
         <v>1.25</v>
@@ -21636,10 +21636,10 @@
         <v>3.75</v>
       </c>
       <c r="N175" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O175" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P175" t="n">
         <v>1.36</v>
@@ -21648,13 +21648,13 @@
         <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S175" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T175" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U175" t="n">
         <v>7</v>
@@ -21666,22 +21666,22 @@
         <v>10</v>
       </c>
       <c r="X175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y175" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA175" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB175" t="n">
         <v>19</v>
       </c>
       <c r="AC175" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD175" t="n">
         <v>351</v>
@@ -21737,19 +21737,19 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
         <v>2.9</v>
       </c>
       <c r="I176" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J176" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K176" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L176" t="n">
         <v>1.57</v>
@@ -21770,16 +21770,16 @@
         <v>2.2</v>
       </c>
       <c r="R176" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S176" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T176" t="n">
         <v>7.5</v>
       </c>
       <c r="U176" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V176" t="n">
         <v>15</v>
@@ -21880,10 +21880,10 @@
         <v>3</v>
       </c>
       <c r="N177" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O177" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P177" t="n">
         <v>1.5</v>
@@ -21981,13 +21981,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H178" t="n">
         <v>3.6</v>
       </c>
       <c r="I178" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J178" t="n">
         <v>1.06</v>
@@ -22029,7 +22029,7 @@
         <v>8.5</v>
       </c>
       <c r="W178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X178" t="n">
         <v>15</v>
@@ -22053,10 +22053,10 @@
         <v>351</v>
       </c>
       <c r="AE178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG178" t="n">
         <v>17</v>
@@ -22716,7 +22716,7 @@
         <v>3.9</v>
       </c>
       <c r="H184" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I184" t="n">
         <v>1.9</v>
@@ -22728,16 +22728,16 @@
         <v>9.5</v>
       </c>
       <c r="L184" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M184" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N184" t="n">
         <v>2.05</v>
       </c>
       <c r="O184" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P184" t="n">
         <v>1.44</v>
@@ -22776,7 +22776,7 @@
         <v>6.5</v>
       </c>
       <c r="AB184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC184" t="n">
         <v>51</v>
@@ -22794,10 +22794,10 @@
         <v>8.5</v>
       </c>
       <c r="AH184" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI184" t="n">
         <v>17</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>15</v>
       </c>
       <c r="AJ184" t="n">
         <v>29</v>
@@ -22835,10 +22835,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H185" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I185" t="n">
         <v>5.25</v>
@@ -22847,7 +22847,7 @@
         <v>1.04</v>
       </c>
       <c r="K185" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L185" t="n">
         <v>1.22</v>
@@ -22862,10 +22862,10 @@
         <v>2</v>
       </c>
       <c r="P185" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q185" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R185" t="n">
         <v>1.75</v>
@@ -22874,10 +22874,10 @@
         <v>2</v>
       </c>
       <c r="T185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U185" t="n">
         <v>8</v>
-      </c>
-      <c r="U185" t="n">
-        <v>8.5</v>
       </c>
       <c r="V185" t="n">
         <v>8.5</v>
@@ -22901,7 +22901,7 @@
         <v>15</v>
       </c>
       <c r="AC185" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD185" t="n">
         <v>201</v>
@@ -22966,10 +22966,10 @@
         <v>4</v>
       </c>
       <c r="J186" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K186" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L186" t="n">
         <v>1.2</v>
@@ -22978,10 +22978,10 @@
         <v>4.33</v>
       </c>
       <c r="N186" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O186" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P186" t="n">
         <v>1.33</v>
@@ -23701,13 +23701,13 @@
         <v>1.01</v>
       </c>
       <c r="K192" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L192" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M192" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N192" t="n">
         <v>1.36</v>
@@ -23811,13 +23811,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>3.3</v>
       </c>
       <c r="I193" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J193" t="n">
         <v>1.05</v>
@@ -23850,7 +23850,7 @@
         <v>2.1</v>
       </c>
       <c r="T193" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U193" t="n">
         <v>13</v>
@@ -23898,7 +23898,7 @@
         <v>21</v>
       </c>
       <c r="AJ193" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194">
@@ -24051,13 +24051,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H195" t="n">
         <v>3.25</v>
       </c>
       <c r="I195" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -24080,7 +24080,7 @@
         <v>2.32</v>
       </c>
       <c r="R195" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S195" t="n">
         <v>1.57</v>
@@ -24089,10 +24089,10 @@
         <v>9.75</v>
       </c>
       <c r="U195" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W195" t="n">
         <v>90</v>
@@ -24101,16 +24101,16 @@
         <v>60</v>
       </c>
       <c r="Y195" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z195" t="n">
         <v>7</v>
       </c>
       <c r="AA195" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB195" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC195" t="n">
         <v>150</v>
@@ -24122,16 +24122,16 @@
         <v>5.2</v>
       </c>
       <c r="AF195" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG195" t="n">
         <v>8.75</v>
       </c>
       <c r="AH195" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI195" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ195" t="n">
         <v>40</v>
@@ -24552,10 +24552,10 @@
         <v>4</v>
       </c>
       <c r="N199" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O199" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P199" t="n">
         <v>1.36</v>
@@ -25019,13 +25019,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H203" t="n">
         <v>3.4</v>
       </c>
       <c r="I203" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J203" t="n">
         <v>1.04</v>
@@ -25040,16 +25040,16 @@
         <v>4</v>
       </c>
       <c r="N203" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O203" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P203" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q203" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R203" t="n">
         <v>1.62</v>
@@ -25058,7 +25058,7 @@
         <v>2.2</v>
       </c>
       <c r="T203" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U203" t="n">
         <v>13</v>
@@ -25070,13 +25070,13 @@
         <v>23</v>
       </c>
       <c r="X203" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA203" t="n">
         <v>6.5</v>
@@ -25144,7 +25144,7 @@
         <v>1.8</v>
       </c>
       <c r="H204" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I204" t="n">
         <v>4.5</v>
@@ -25180,7 +25180,7 @@
         <v>2.05</v>
       </c>
       <c r="T204" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U204" t="n">
         <v>9</v>
@@ -25385,19 +25385,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H206" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I206" t="n">
         <v>5.25</v>
       </c>
       <c r="J206" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K206" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L206" t="n">
         <v>1.3</v>
@@ -25412,10 +25412,10 @@
         <v>1.8</v>
       </c>
       <c r="P206" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R206" t="n">
         <v>1.95</v>
@@ -25427,7 +25427,7 @@
         <v>6.5</v>
       </c>
       <c r="U206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V206" t="n">
         <v>8.5</v>
@@ -25442,10 +25442,10 @@
         <v>29</v>
       </c>
       <c r="Z206" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA206" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB206" t="n">
         <v>17</v>
@@ -26117,13 +26117,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>3.4</v>
       </c>
       <c r="I212" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J212" t="n">
         <v>1.04</v>
@@ -26156,13 +26156,13 @@
         <v>2.25</v>
       </c>
       <c r="T212" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U212" t="n">
         <v>13</v>
       </c>
       <c r="V212" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W212" t="n">
         <v>23</v>
@@ -26189,7 +26189,7 @@
         <v>126</v>
       </c>
       <c r="AE212" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF212" t="n">
         <v>15</v>
@@ -26361,25 +26361,25 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H214" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I214" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="J214" t="n">
         <v>1.08</v>
       </c>
       <c r="K214" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L214" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M214" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="N214" t="n">
         <v>2.1</v>
@@ -26394,37 +26394,37 @@
         <v>2.5</v>
       </c>
       <c r="R214" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S214" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T214" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U214" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V214" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W214" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X214" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y214" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z214" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA214" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB214" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC214" t="n">
         <v>80</v>
@@ -26433,22 +26433,22 @@
         <v>700</v>
       </c>
       <c r="AE214" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF214" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG214" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH214" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI214" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ214" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215">
@@ -26891,7 +26891,7 @@
         <v>6.6</v>
       </c>
       <c r="U218" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V218" t="n">
         <v>9</v>
@@ -26912,7 +26912,7 @@
         <v>6.3</v>
       </c>
       <c r="AB218" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC218" t="n">
         <v>90</v>
@@ -26995,7 +26995,7 @@
         <v>1.72</v>
       </c>
       <c r="O219" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P219" t="n">
         <v>1.36</v>
@@ -27043,10 +27043,10 @@
         <v>300</v>
       </c>
       <c r="AE219" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF219" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG219" t="n">
         <v>9.5</v>
@@ -27358,7 +27358,7 @@
         <v>3.4</v>
       </c>
       <c r="N222" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O222" t="n">
         <v>1.9</v>
@@ -27376,10 +27376,10 @@
         <v>2.05</v>
       </c>
       <c r="T222" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U222" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V222" t="n">
         <v>10.25</v>
@@ -27409,10 +27409,10 @@
         <v>400</v>
       </c>
       <c r="AE222" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF222" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG222" t="n">
         <v>9</v>
@@ -27421,7 +27421,7 @@
         <v>23</v>
       </c>
       <c r="AI222" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ222" t="n">
         <v>26</v>
@@ -27584,7 +27584,7 @@
         <v>2.07</v>
       </c>
       <c r="H224" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I224" t="n">
         <v>3.2</v>
@@ -27593,25 +27593,25 @@
         <v>1.06</v>
       </c>
       <c r="K224" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L224" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M224" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N224" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O224" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P224" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q224" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R224" t="n">
         <v>1.78</v>
@@ -27620,7 +27620,7 @@
         <v>1.93</v>
       </c>
       <c r="T224" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U224" t="n">
         <v>9.75</v>
@@ -27638,19 +27638,19 @@
         <v>28</v>
       </c>
       <c r="Z224" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA224" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB224" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC224" t="n">
         <v>70</v>
       </c>
       <c r="AD224" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE224" t="n">
         <v>9.75</v>
@@ -27659,16 +27659,16 @@
         <v>16.5</v>
       </c>
       <c r="AG224" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH224" t="n">
         <v>40</v>
       </c>
       <c r="AI224" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ224" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225">
@@ -27709,15 +27709,15 @@
         <v>5</v>
       </c>
       <c r="I225" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M225" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N225" t="n">
         <v>1.62</v>
@@ -27732,40 +27732,40 @@
         <v>2.57</v>
       </c>
       <c r="R225" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S225" t="n">
         <v>1.6</v>
       </c>
       <c r="T225" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U225" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="V225" t="n">
         <v>9</v>
       </c>
       <c r="W225" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X225" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y225" t="n">
         <v>32</v>
       </c>
       <c r="Z225" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA225" t="n">
         <v>10.25</v>
       </c>
       <c r="AB225" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC225" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD225" t="n">
         <v>101</v>
@@ -27777,16 +27777,16 @@
         <v>60</v>
       </c>
       <c r="AG225" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH225" t="n">
         <v>250</v>
       </c>
       <c r="AI225" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ225" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226">
@@ -27943,13 +27943,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H227" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I227" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="J227" t="n">
         <v>1.03</v>
@@ -27976,22 +27976,22 @@
         <v>3.25</v>
       </c>
       <c r="R227" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S227" t="n">
         <v>2.02</v>
       </c>
       <c r="T227" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="U227" t="n">
         <v>37</v>
       </c>
       <c r="V227" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="W227" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X227" t="n">
         <v>50</v>
@@ -28003,13 +28003,13 @@
         <v>9.25</v>
       </c>
       <c r="AA227" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB227" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC227" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD227" t="n">
         <v>400</v>
@@ -28018,13 +28018,13 @@
         <v>8.75</v>
       </c>
       <c r="AF227" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG227" t="n">
         <v>8.25</v>
       </c>
       <c r="AH227" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI227" t="n">
         <v>11</v>
@@ -28309,7 +28309,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H230" t="n">
         <v>3.35</v>
@@ -28318,7 +28318,7 @@
         <v>2.1</v>
       </c>
       <c r="J230" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K230" t="n">
         <v>7.1</v>
@@ -28357,7 +28357,7 @@
         <v>11.25</v>
       </c>
       <c r="W230" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X230" t="n">
         <v>28</v>
@@ -28381,7 +28381,7 @@
         <v>600</v>
       </c>
       <c r="AE230" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF230" t="n">
         <v>9.75</v>
@@ -28390,7 +28390,7 @@
         <v>9</v>
       </c>
       <c r="AH230" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI230" t="n">
         <v>17.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
@@ -650,10 +650,10 @@
         <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -662,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>1.62</v>
@@ -680,10 +680,10 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
         <v>13</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -808,7 +808,7 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
         <v>15</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V4" t="n">
         <v>15</v>
@@ -966,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>9.5</v>
@@ -1013,25 +1013,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N5" t="n">
         <v>1.67</v>
@@ -1040,22 +1040,22 @@
         <v>2.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1070,10 +1070,10 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>19</v>
@@ -1082,25 +1082,25 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI5" t="n">
         <v>41</v>
       </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
@@ -1168,19 +1168,19 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U6" t="n">
         <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W6" t="n">
         <v>26</v>
@@ -1192,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>8</v>
@@ -1204,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1341,7 +1341,7 @@
         <v>151</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H9" t="n">
         <v>7.5</v>
@@ -1516,10 +1516,10 @@
         <v>21</v>
       </c>
       <c r="L9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N9" t="n">
         <v>1.4</v>
@@ -1528,10 +1528,10 @@
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R9" t="n">
         <v>1.95</v>
@@ -1546,7 +1546,7 @@
         <v>7.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -1555,16 +1555,16 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
         <v>23</v>
       </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
@@ -1579,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
         <v>151</v>
@@ -1626,10 +1626,10 @@
         <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V10" t="n">
         <v>13</v>
@@ -1680,10 +1680,10 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1698,16 +1698,16 @@
         <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
         <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>29</v>
@@ -1754,10 +1754,10 @@
         <v>1.27</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1832,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2245,7 +2245,7 @@
         <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" t="n">
         <v>1.1</v>
@@ -2266,10 +2266,10 @@
         <v>4.33</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
         <v>12</v>
@@ -2278,16 +2278,16 @@
         <v>9</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>26</v>
@@ -2314,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2502,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>1.8</v>
@@ -2559,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>23</v>
@@ -2618,10 +2618,10 @@
         <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.57</v>
@@ -2633,7 +2633,7 @@
         <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -2728,16 +2728,16 @@
         <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
         <v>2.5</v>
@@ -2755,7 +2755,7 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T19" t="n">
         <v>5.5</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2862,10 +2862,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2874,10 +2874,10 @@
         <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
         <v>6.5</v>
@@ -2898,7 +2898,7 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2919,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -3588,10 +3588,10 @@
         <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N26" t="n">
         <v>3.1</v>
@@ -4317,7 +4317,7 @@
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
         <v>1.17</v>
@@ -4326,10 +4326,10 @@
         <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -4472,7 +4472,7 @@
         <v>6.5</v>
       </c>
       <c r="V33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W33" t="n">
         <v>9</v>
@@ -4481,19 +4481,19 @@
         <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
         <v>351</v>
@@ -4549,87 +4549,87 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.92</v>
+        <v>2.47</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O34" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R34" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S34" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>26</v>
+      </c>
+      <c r="X34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE34" t="n">
         <v>9</v>
       </c>
-      <c r="U34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W34" t="n">
-        <v>35</v>
-      </c>
-      <c r="X34" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="AF34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG34" t="n">
         <v>9.75</v>
       </c>
-      <c r="AA34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9</v>
-      </c>
       <c r="AH34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI34" t="n">
         <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>18</v>
       </c>
       <c r="AJ34" t="n">
         <v>29</v>
@@ -4785,90 +4785,90 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R36" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T36" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U36" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="V36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="AB36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD36" t="n">
         <v>800</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH36" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -4903,19 +4903,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
         <v>7.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -4957,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
         <v>9</v>
@@ -5064,7 +5064,7 @@
         <v>1.62</v>
       </c>
       <c r="T38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U38" t="n">
         <v>34</v>
@@ -5635,94 +5635,94 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I43" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
         <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="N43" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="P43" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="U43" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V43" t="n">
         <v>9.25</v>
       </c>
       <c r="W43" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X43" t="n">
         <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA43" t="n">
         <v>6</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF43" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ43" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
@@ -5888,10 +5888,10 @@
         <v>1.67</v>
       </c>
       <c r="J45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
         <v>1.33</v>
@@ -6754,10 +6754,10 @@
         <v>3.4</v>
       </c>
       <c r="N52" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P52" t="n">
         <v>1.4</v>
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J53" t="n">
         <v>1.1</v>
@@ -6900,7 +6900,7 @@
         <v>15.5</v>
       </c>
       <c r="V53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W53" t="n">
         <v>45</v>
@@ -6930,13 +6930,13 @@
         <v>6.1</v>
       </c>
       <c r="AF53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG53" t="n">
         <v>10.25</v>
       </c>
-      <c r="AG53" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH53" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI53" t="n">
         <v>24</v>
@@ -7221,13 +7221,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -7266,10 +7266,10 @@
         <v>19</v>
       </c>
       <c r="V56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
@@ -7299,13 +7299,13 @@
         <v>15</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH56" t="n">
         <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ56" t="n">
         <v>19</v>
@@ -7465,25 +7465,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
         <v>2.1</v>
@@ -7507,10 +7507,10 @@
         <v>6</v>
       </c>
       <c r="U58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W58" t="n">
         <v>11</v>
@@ -7522,7 +7522,7 @@
         <v>34</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA58" t="n">
         <v>7</v>
@@ -7543,7 +7543,7 @@
         <v>29</v>
       </c>
       <c r="AG58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH58" t="n">
         <v>67</v>
@@ -7735,13 +7735,13 @@
         <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R60" t="n">
         <v>1.78</v>
       </c>
       <c r="S60" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
         <v>8.75</v>
@@ -7762,7 +7762,7 @@
         <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA60" t="n">
         <v>6.2</v>
@@ -7827,27 +7827,27 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H61" t="n">
         <v>3.15</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M61" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="N61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P61" t="n">
         <v>1.5</v>
@@ -7856,22 +7856,22 @@
         <v>2.27</v>
       </c>
       <c r="R61" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S61" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T61" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U61" t="n">
         <v>13</v>
       </c>
       <c r="V61" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X61" t="n">
         <v>28</v>
@@ -7880,25 +7880,25 @@
         <v>45</v>
       </c>
       <c r="Z61" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC61" t="n">
         <v>100</v>
       </c>
       <c r="AD61" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE61" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF61" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG61" t="n">
         <v>9.75</v>
@@ -7907,10 +7907,10 @@
         <v>24</v>
       </c>
       <c r="AI61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -9043,52 +9043,52 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J71" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M71" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T71" t="n">
         <v>5.5</v>
       </c>
       <c r="U71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W71" t="n">
         <v>15</v>
@@ -9097,25 +9097,25 @@
         <v>19</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD71" t="n">
         <v>1000</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
         <v>21</v>
@@ -9177,13 +9177,13 @@
         <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L72" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N72" t="n">
         <v>1.53</v>
@@ -9300,7 +9300,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O73" t="n">
         <v>2.7</v>
@@ -9308,10 +9308,10 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="S73" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="T73" t="n">
         <v>40</v>
@@ -9511,13 +9511,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>3.3</v>
       </c>
       <c r="I75" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J75" t="n">
         <v>1.04</v>
@@ -9553,7 +9553,7 @@
         <v>12</v>
       </c>
       <c r="U75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V75" t="n">
         <v>11</v>
@@ -9877,13 +9877,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J78" t="n">
         <v>1.04</v>
@@ -9922,10 +9922,10 @@
         <v>23</v>
       </c>
       <c r="V78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X78" t="n">
         <v>34</v>
@@ -9943,7 +9943,7 @@
         <v>15</v>
       </c>
       <c r="AC78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD78" t="n">
         <v>201</v>
@@ -9952,13 +9952,13 @@
         <v>8</v>
       </c>
       <c r="AF78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI78" t="n">
         <v>13</v>
@@ -10121,13 +10121,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>3.5</v>
       </c>
       <c r="I80" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J80" t="n">
         <v>1.06</v>
@@ -10136,16 +10136,16 @@
         <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M80" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N80" t="n">
         <v>2.05</v>
       </c>
       <c r="O80" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P80" t="n">
         <v>1.44</v>
@@ -10202,10 +10202,10 @@
         <v>15</v>
       </c>
       <c r="AH80" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -10487,13 +10487,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
@@ -10535,7 +10535,7 @@
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X83" t="n">
         <v>13</v>
@@ -10565,7 +10565,7 @@
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH83" t="n">
         <v>41</v>
@@ -10746,10 +10746,10 @@
         <v>17</v>
       </c>
       <c r="L85" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N85" t="n">
         <v>1.53</v>
@@ -11234,16 +11234,16 @@
         <v>13</v>
       </c>
       <c r="L89" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M89" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N89" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O89" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P89" t="n">
         <v>1.33</v>
@@ -11362,10 +11362,10 @@
         <v>4</v>
       </c>
       <c r="N90" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O90" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P90" t="n">
         <v>1.33</v>
@@ -11478,16 +11478,16 @@
         <v>13</v>
       </c>
       <c r="L91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N91" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O91" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P91" t="n">
         <v>1.33</v>
@@ -11585,13 +11585,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H92" t="n">
         <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J92" t="n">
         <v>1.04</v>
@@ -11624,7 +11624,7 @@
         <v>2.2</v>
       </c>
       <c r="T92" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U92" t="n">
         <v>11</v>
@@ -11639,7 +11639,7 @@
         <v>15</v>
       </c>
       <c r="Y92" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z92" t="n">
         <v>13</v>
@@ -11666,10 +11666,10 @@
         <v>12</v>
       </c>
       <c r="AH92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ92" t="n">
         <v>29</v>
@@ -11829,13 +11829,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H94" t="n">
         <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J94" t="n">
         <v>1.04</v>
@@ -11871,7 +11871,7 @@
         <v>12</v>
       </c>
       <c r="U94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V94" t="n">
         <v>11</v>
@@ -12436,22 +12436,22 @@
         <v>2.5</v>
       </c>
       <c r="J99" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N99" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O99" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P99" t="n">
         <v>1.53</v>
@@ -12564,10 +12564,10 @@
         <v>9</v>
       </c>
       <c r="L100" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M100" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N100" t="n">
         <v>2.1</v>
@@ -12680,10 +12680,10 @@
         <v>4.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
         <v>1.33</v>
@@ -12692,10 +12692,10 @@
         <v>3.25</v>
       </c>
       <c r="N101" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O101" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -13043,7 +13043,7 @@
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J104" t="n">
         <v>1.07</v>
@@ -13100,7 +13100,7 @@
         <v>6.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC104" t="n">
         <v>80</v>
@@ -13525,13 +13525,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H108" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I108" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J108" t="n">
         <v>1.06</v>
@@ -13540,22 +13540,22 @@
         <v>7.4</v>
       </c>
       <c r="L108" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M108" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N108" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O108" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P108" t="n">
         <v>1.4</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R108" t="n">
         <v>1.62</v>
@@ -13567,19 +13567,19 @@
         <v>9.5</v>
       </c>
       <c r="U108" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V108" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X108" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z108" t="n">
         <v>7.4</v>
@@ -13597,16 +13597,16 @@
         <v>350</v>
       </c>
       <c r="AE108" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF108" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG108" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH108" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI108" t="n">
         <v>19</v>
@@ -13891,31 +13891,31 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>2.9</v>
       </c>
       <c r="I111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K111" t="n">
+        <v>8</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M111" t="n">
         <v>3</v>
       </c>
-      <c r="J111" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K111" t="n">
-        <v>9</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N111" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O111" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P111" t="n">
         <v>1.44</v>
@@ -13966,7 +13966,7 @@
         <v>9</v>
       </c>
       <c r="AF111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG111" t="n">
         <v>11</v>
@@ -13975,7 +13975,7 @@
         <v>29</v>
       </c>
       <c r="AI111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ111" t="n">
         <v>34</v>
@@ -14013,13 +14013,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>3.4</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J112" t="n">
         <v>1.05</v>
@@ -14058,7 +14058,7 @@
         <v>19</v>
       </c>
       <c r="V112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W112" t="n">
         <v>41</v>
@@ -14257,13 +14257,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H114" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J114" t="n">
         <v>1.1</v>
@@ -14278,10 +14278,10 @@
         <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P114" t="n">
         <v>1.57</v>
@@ -14296,19 +14296,19 @@
         <v>1.67</v>
       </c>
       <c r="T114" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V114" t="n">
         <v>10</v>
       </c>
       <c r="W114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y114" t="n">
         <v>41</v>
@@ -14320,7 +14320,7 @@
         <v>6</v>
       </c>
       <c r="AB114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC114" t="n">
         <v>67</v>
@@ -14338,10 +14338,10 @@
         <v>13</v>
       </c>
       <c r="AH114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ114" t="n">
         <v>41</v>
@@ -14379,38 +14379,38 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M115" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="N115" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O115" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S115" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="T115" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="U115" t="n">
         <v>14</v>
@@ -14419,46 +14419,46 @@
         <v>9</v>
       </c>
       <c r="W115" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X115" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z115" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB115" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AC115" t="n">
         <v>35</v>
       </c>
       <c r="AD115" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE115" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF115" t="n">
         <v>10</v>
       </c>
       <c r="AG115" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH115" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ115" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="116">
@@ -14732,10 +14732,10 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M118" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N118" t="n">
         <v>2.32</v>
@@ -14750,10 +14750,10 @@
         <v>2.2</v>
       </c>
       <c r="R118" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S118" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T118" t="n">
         <v>5.3</v>
@@ -14957,82 +14957,82 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H120" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I120" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="O120" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S120" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="T120" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U120" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V120" t="n">
         <v>7.2</v>
       </c>
-      <c r="U120" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="V120" t="n">
-        <v>7.3</v>
-      </c>
       <c r="W120" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="X120" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y120" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z120" t="n">
         <v>15.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB120" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD120" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE120" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF120" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG120" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ120" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
@@ -15193,7 +15193,7 @@
         <v>1.03</v>
       </c>
       <c r="K122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L122" t="n">
         <v>1.2</v>
@@ -16268,10 +16268,10 @@
         <v>2.75</v>
       </c>
       <c r="N131" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O131" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16613,19 +16613,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H134" t="n">
         <v>3.3</v>
       </c>
       <c r="I134" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J134" t="n">
         <v>1.06</v>
       </c>
       <c r="K134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L134" t="n">
         <v>1.3</v>
@@ -16634,16 +16634,16 @@
         <v>3.4</v>
       </c>
       <c r="N134" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O134" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P134" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R134" t="n">
         <v>1.8</v>
@@ -16670,7 +16670,7 @@
         <v>34</v>
       </c>
       <c r="Z134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA134" t="n">
         <v>6.5</v>
@@ -16685,7 +16685,7 @@
         <v>251</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF134" t="n">
         <v>12</v>
@@ -17360,10 +17360,10 @@
         <v>13</v>
       </c>
       <c r="L140" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M140" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N140" t="n">
         <v>1.7</v>
@@ -18086,10 +18086,10 @@
         <v>4.1</v>
       </c>
       <c r="J146" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K146" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L146" t="n">
         <v>1.33</v>
@@ -18098,10 +18098,10 @@
         <v>3.25</v>
       </c>
       <c r="N146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O146" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J147" t="n">
         <v>1.05</v>
@@ -18241,13 +18241,13 @@
         <v>12</v>
       </c>
       <c r="U147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W147" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X147" t="n">
         <v>34</v>
@@ -18259,7 +18259,7 @@
         <v>11</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB147" t="n">
         <v>15</v>
@@ -18271,10 +18271,10 @@
         <v>251</v>
       </c>
       <c r="AE147" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF147" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG147" t="n">
         <v>8.5</v>
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H148" t="n">
         <v>4.1</v>
@@ -18342,10 +18342,10 @@
         <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O148" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P148" t="n">
         <v>1.36</v>
@@ -18354,10 +18354,10 @@
         <v>3</v>
       </c>
       <c r="R148" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S148" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -18381,7 +18381,7 @@
         <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB148" t="n">
         <v>17</v>
@@ -18393,7 +18393,7 @@
         <v>251</v>
       </c>
       <c r="AE148" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF148" t="n">
         <v>7.5</v>
@@ -18408,7 +18408,7 @@
         <v>13</v>
       </c>
       <c r="AJ148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
@@ -19297,13 +19297,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H156" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J156" t="n">
         <v>1.05</v>
@@ -19336,13 +19336,13 @@
         <v>1.91</v>
       </c>
       <c r="T156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U156" t="n">
         <v>10</v>
       </c>
       <c r="V156" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W156" t="n">
         <v>19</v>
@@ -19354,7 +19354,7 @@
         <v>29</v>
       </c>
       <c r="Z156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA156" t="n">
         <v>7</v>
@@ -20312,19 +20312,19 @@
         <v>2.12</v>
       </c>
       <c r="T164" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U164" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V164" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W164" t="n">
         <v>40</v>
       </c>
       <c r="X164" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y164" t="n">
         <v>32</v>
@@ -20342,10 +20342,10 @@
         <v>60</v>
       </c>
       <c r="AD164" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE164" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF164" t="n">
         <v>12.5</v>
@@ -20357,10 +20357,10 @@
         <v>25</v>
       </c>
       <c r="AI164" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ164" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
@@ -20770,10 +20770,10 @@
         <v>5.5</v>
       </c>
       <c r="J168" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L168" t="n">
         <v>1.36</v>
@@ -21392,10 +21392,10 @@
         <v>3.5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O173" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P173" t="n">
         <v>1.4</v>
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H175" t="n">
         <v>4.1</v>
@@ -21675,7 +21675,7 @@
         <v>12</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB175" t="n">
         <v>19</v>
@@ -21684,7 +21684,7 @@
         <v>51</v>
       </c>
       <c r="AD175" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE175" t="n">
         <v>15</v>
@@ -21699,10 +21699,10 @@
         <v>67</v>
       </c>
       <c r="AI175" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ175" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176">
@@ -21981,19 +21981,19 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H178" t="n">
         <v>3.6</v>
       </c>
       <c r="I178" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J178" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K178" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L178" t="n">
         <v>1.3</v>
@@ -22029,7 +22029,7 @@
         <v>8.5</v>
       </c>
       <c r="W178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X178" t="n">
         <v>15</v>
@@ -22053,10 +22053,10 @@
         <v>351</v>
       </c>
       <c r="AE178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF178" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG178" t="n">
         <v>17</v>
@@ -22112,16 +22112,16 @@
         <v>3.4</v>
       </c>
       <c r="J179" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K179" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L179" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M179" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N179" t="n">
         <v>3.1</v>
@@ -22136,16 +22136,16 @@
         <v>2.1</v>
       </c>
       <c r="R179" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S179" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T179" t="n">
         <v>5.5</v>
       </c>
       <c r="U179" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V179" t="n">
         <v>11</v>
@@ -22160,7 +22160,7 @@
         <v>41</v>
       </c>
       <c r="Z179" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA179" t="n">
         <v>6</v>
@@ -22169,7 +22169,7 @@
         <v>21</v>
       </c>
       <c r="AC179" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD179" t="n">
         <v>101</v>
@@ -22181,13 +22181,13 @@
         <v>15</v>
       </c>
       <c r="AG179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH179" t="n">
         <v>41</v>
       </c>
       <c r="AI179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ179" t="n">
         <v>51</v>
@@ -22356,10 +22356,10 @@
         <v>3.2</v>
       </c>
       <c r="J181" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L181" t="n">
         <v>1.44</v>
@@ -22591,13 +22591,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H183" t="n">
         <v>3</v>
       </c>
       <c r="I183" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J183" t="n">
         <v>1.08</v>
@@ -22713,19 +22713,19 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H184" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I184" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J184" t="n">
         <v>1.06</v>
       </c>
       <c r="K184" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L184" t="n">
         <v>1.33</v>
@@ -22755,7 +22755,7 @@
         <v>11</v>
       </c>
       <c r="U184" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V184" t="n">
         <v>13</v>
@@ -22797,7 +22797,7 @@
         <v>15</v>
       </c>
       <c r="AI184" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ184" t="n">
         <v>29</v>
@@ -22910,7 +22910,7 @@
         <v>15</v>
       </c>
       <c r="AF185" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG185" t="n">
         <v>17</v>
@@ -22966,10 +22966,10 @@
         <v>4</v>
       </c>
       <c r="J186" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K186" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L186" t="n">
         <v>1.2</v>
@@ -23326,7 +23326,7 @@
         <v>1.62</v>
       </c>
       <c r="H189" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I189" t="n">
         <v>4.45</v>
@@ -23341,7 +23341,7 @@
         <v>1.15</v>
       </c>
       <c r="M189" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="N189" t="n">
         <v>1.47</v>
@@ -23362,7 +23362,7 @@
         <v>2.35</v>
       </c>
       <c r="T189" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U189" t="n">
         <v>9.75</v>
@@ -23392,13 +23392,13 @@
         <v>40</v>
       </c>
       <c r="AD189" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE189" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF189" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG189" t="n">
         <v>14.5</v>
@@ -24421,7 +24421,7 @@
         <v>1.07</v>
       </c>
       <c r="K198" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L198" t="n">
         <v>1.36</v>
@@ -24552,10 +24552,10 @@
         <v>4</v>
       </c>
       <c r="N199" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O199" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P199" t="n">
         <v>1.36</v>
@@ -25153,7 +25153,7 @@
         <v>1.04</v>
       </c>
       <c r="K204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L204" t="n">
         <v>1.22</v>
@@ -25385,19 +25385,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I206" t="n">
         <v>5.25</v>
       </c>
       <c r="J206" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L206" t="n">
         <v>1.3</v>
@@ -25412,10 +25412,10 @@
         <v>1.8</v>
       </c>
       <c r="P206" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R206" t="n">
         <v>1.95</v>
@@ -25427,7 +25427,7 @@
         <v>6.5</v>
       </c>
       <c r="U206" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V206" t="n">
         <v>8.5</v>
@@ -25442,10 +25442,10 @@
         <v>29</v>
       </c>
       <c r="Z206" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA206" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB206" t="n">
         <v>17</v>
@@ -25751,13 +25751,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J209" t="n">
         <v>1.03</v>
@@ -25778,16 +25778,16 @@
         <v>2.15</v>
       </c>
       <c r="P209" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q209" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R209" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S209" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T209" t="n">
         <v>8.5</v>
@@ -25799,7 +25799,7 @@
         <v>8.5</v>
       </c>
       <c r="W209" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X209" t="n">
         <v>12</v>
@@ -25814,7 +25814,7 @@
         <v>7.5</v>
       </c>
       <c r="AB209" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC209" t="n">
         <v>41</v>
@@ -26117,10 +26117,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I212" t="n">
         <v>2.8</v>
@@ -26974,10 +26974,10 @@
         <v>2.45</v>
       </c>
       <c r="H219" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I219" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J219" t="n">
         <v>1.05</v>
@@ -26995,13 +26995,13 @@
         <v>1.72</v>
       </c>
       <c r="O219" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P219" t="n">
         <v>1.36</v>
       </c>
       <c r="Q219" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R219" t="n">
         <v>1.6</v>
@@ -27010,7 +27010,7 @@
         <v>2.2</v>
       </c>
       <c r="T219" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U219" t="n">
         <v>13.5</v>
@@ -27031,10 +27031,10 @@
         <v>8</v>
       </c>
       <c r="AA219" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB219" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC219" t="n">
         <v>45</v>
@@ -27043,10 +27043,10 @@
         <v>300</v>
       </c>
       <c r="AE219" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF219" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG219" t="n">
         <v>9.5</v>
@@ -27376,10 +27376,10 @@
         <v>2.05</v>
       </c>
       <c r="T222" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U222" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V222" t="n">
         <v>10.25</v>
@@ -27409,10 +27409,10 @@
         <v>400</v>
       </c>
       <c r="AE222" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF222" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG222" t="n">
         <v>9</v>
@@ -27421,7 +27421,7 @@
         <v>23</v>
       </c>
       <c r="AI222" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ222" t="n">
         <v>26</v>
@@ -27581,94 +27581,94 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H224" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I224" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J224" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K224" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="L224" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M224" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="N224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O224" t="n">
         <v>1.88</v>
       </c>
-      <c r="O224" t="n">
-        <v>1.82</v>
-      </c>
       <c r="P224" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q224" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R224" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S224" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T224" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U224" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V224" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W224" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="X224" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y224" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z224" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA224" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB224" t="n">
         <v>14.5</v>
       </c>
       <c r="AC224" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD224" t="n">
         <v>500</v>
       </c>
       <c r="AE224" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF224" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG224" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH224" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI224" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ224" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225">
@@ -27821,13 +27821,13 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I226" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J226" t="n">
         <v>1.11</v>
@@ -27836,34 +27836,34 @@
         <v>6</v>
       </c>
       <c r="L226" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M226" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="N226" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O226" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P226" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q226" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R226" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S226" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T226" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U226" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="V226" t="n">
         <v>8.25</v>
@@ -27872,34 +27872,34 @@
         <v>12.5</v>
       </c>
       <c r="X226" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y226" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z226" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA226" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB226" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC226" t="n">
         <v>90</v>
       </c>
       <c r="AD226" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE226" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF226" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG226" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH226" t="n">
         <v>90</v>
@@ -27943,91 +27943,91 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H227" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I227" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J227" t="n">
         <v>1.03</v>
       </c>
       <c r="K227" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L227" t="n">
         <v>1.18</v>
       </c>
       <c r="M227" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="N227" t="n">
         <v>1.55</v>
       </c>
       <c r="O227" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P227" t="n">
         <v>1.29</v>
       </c>
       <c r="Q227" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R227" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S227" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T227" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="U227" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V227" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="W227" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X227" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y227" t="n">
         <v>50</v>
       </c>
-      <c r="Y227" t="n">
-        <v>45</v>
-      </c>
       <c r="Z227" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA227" t="n">
         <v>9</v>
       </c>
       <c r="AB227" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC227" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD227" t="n">
         <v>400</v>
       </c>
       <c r="AE227" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF227" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG227" t="n">
         <v>8.25</v>
       </c>
       <c r="AH227" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI227" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ227" t="n">
         <v>22</v>
@@ -28065,94 +28065,94 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="H228" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>5.3</v>
+        <v>4.15</v>
       </c>
       <c r="J228" t="n">
         <v>1.03</v>
       </c>
       <c r="K228" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L228" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M228" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="N228" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O228" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="P228" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q228" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R228" t="n">
         <v>1.65</v>
       </c>
       <c r="S228" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T228" t="n">
         <v>9</v>
       </c>
       <c r="U228" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V228" t="n">
         <v>8.25</v>
       </c>
       <c r="W228" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="X228" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y228" t="n">
         <v>21</v>
       </c>
       <c r="Z228" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA228" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB228" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC228" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD228" t="n">
         <v>350</v>
       </c>
       <c r="AE228" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AF228" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI228" t="n">
         <v>35</v>
       </c>
-      <c r="AG228" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH228" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI228" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ228" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229">
@@ -28187,13 +28187,13 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
         <v>3.6</v>
       </c>
       <c r="I229" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J229" t="n">
         <v>1.03</v>
@@ -28211,34 +28211,34 @@
         <v>1.53</v>
       </c>
       <c r="O229" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="P229" t="n">
         <v>1.3</v>
       </c>
       <c r="Q229" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R229" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S229" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T229" t="n">
         <v>11</v>
       </c>
       <c r="U229" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V229" t="n">
         <v>8.75</v>
       </c>
       <c r="W229" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X229" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y229" t="n">
         <v>19</v>
@@ -28250,7 +28250,7 @@
         <v>7.6</v>
       </c>
       <c r="AB229" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC229" t="n">
         <v>37</v>
@@ -28259,22 +28259,22 @@
         <v>200</v>
       </c>
       <c r="AE229" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF229" t="n">
         <v>19.5</v>
       </c>
       <c r="AG229" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH229" t="n">
         <v>40</v>
       </c>
       <c r="AI229" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ229" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
@@ -28309,10 +28309,10 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H230" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I230" t="n">
         <v>2.1</v>
@@ -28321,7 +28321,7 @@
         <v>1.07</v>
       </c>
       <c r="K230" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L230" t="n">
         <v>1.33</v>
@@ -28339,25 +28339,25 @@
         <v>1.44</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R230" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S230" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T230" t="n">
         <v>9.25</v>
       </c>
       <c r="U230" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V230" t="n">
         <v>11.25</v>
       </c>
       <c r="W230" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X230" t="n">
         <v>28</v>
@@ -28366,13 +28366,13 @@
         <v>37</v>
       </c>
       <c r="Z230" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA230" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB230" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC230" t="n">
         <v>75</v>
@@ -28384,10 +28384,10 @@
         <v>7.3</v>
       </c>
       <c r="AF230" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG230" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH230" t="n">
         <v>19.5</v>
@@ -28396,7 +28396,7 @@
         <v>17.5</v>
       </c>
       <c r="AJ230" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231">
@@ -28431,25 +28431,25 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H231" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I231" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="J231" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K231" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L231" t="n">
         <v>1.23</v>
       </c>
       <c r="M231" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N231" t="n">
         <v>1.7</v>
@@ -28458,64 +28458,64 @@
         <v>2.05</v>
       </c>
       <c r="P231" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q231" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R231" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S231" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="T231" t="n">
         <v>9.75</v>
       </c>
       <c r="U231" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V231" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W231" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X231" t="n">
         <v>17.5</v>
       </c>
       <c r="Y231" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z231" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA231" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB231" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC231" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD231" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE231" t="n">
         <v>10.75</v>
       </c>
       <c r="AF231" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG231" t="n">
         <v>10</v>
       </c>
       <c r="AH231" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI231" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ231" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
@@ -1138,7 +1138,7 @@
         <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.6</v>
@@ -1156,10 +1156,10 @@
         <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1177,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="U6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
@@ -1269,7 +1269,7 @@
         <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
         <v>1.07</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
         <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1412,22 +1412,22 @@
         <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
         <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1451,22 +1451,22 @@
         <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1510,22 +1510,22 @@
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.2</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>1.25</v>
@@ -2275,19 +2275,19 @@
         <v>11</v>
       </c>
       <c r="U15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V15" t="n">
         <v>11</v>
       </c>
       <c r="W15" t="n">
+        <v>34</v>
+      </c>
+      <c r="X15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="n">
         <v>29</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>26</v>
       </c>
       <c r="Z15" t="n">
         <v>12</v>
@@ -2308,13 +2308,13 @@
         <v>9.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2492,16 +2492,16 @@
         <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2516,13 +2516,13 @@
         <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W17" t="n">
         <v>126</v>
@@ -2534,7 +2534,7 @@
         <v>67</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>9.5</v>
@@ -2543,13 +2543,13 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2632,10 +2632,10 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
         <v>5.5</v>
@@ -2644,10 +2644,10 @@
         <v>6</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2659,13 +2659,13 @@
         <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2686,7 +2686,7 @@
         <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2760,10 +2760,10 @@
         <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2799,16 +2799,16 @@
         <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3093,80 +3093,80 @@
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.44</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
         <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
         <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
         <v>51</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -3216,34 +3216,34 @@
         <v>1.62</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="O23" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="P23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -3264,25 +3264,25 @@
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG23" t="n">
         <v>8.5</v>
@@ -3294,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3344,16 +3344,16 @@
         <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>1.67</v>
@@ -3362,13 +3362,13 @@
         <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U24" t="n">
         <v>7</v>
@@ -3395,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
@@ -3404,19 +3404,19 @@
         <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
         <v>51</v>
       </c>
       <c r="AJ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -3457,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>1.13</v>
@@ -3493,7 +3493,7 @@
         <v>5.5</v>
       </c>
       <c r="U25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
         <v>10</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
         <v>1.1</v>
@@ -3621,7 +3621,7 @@
         <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3630,10 +3630,10 @@
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
@@ -3645,7 +3645,7 @@
         <v>451</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
@@ -3704,22 +3704,22 @@
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.67</v>
@@ -3728,13 +3728,13 @@
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
@@ -3776,10 +3776,10 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI27" t="n">
         <v>81</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>67</v>
       </c>
       <c r="AJ27" t="n">
         <v>101</v>
@@ -3939,25 +3939,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N29" t="n">
         <v>2.88</v>
@@ -3966,10 +3966,10 @@
         <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>2.5</v>
@@ -3978,10 +3978,10 @@
         <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
         <v>10</v>
@@ -3996,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -4023,7 +4023,7 @@
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4061,19 +4061,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
         <v>1.62</v>
@@ -4082,10 +4082,10 @@
         <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
         <v>1.67</v>
@@ -4183,37 +4183,37 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K31" t="n">
         <v>6.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
         <v>2.5</v>
@@ -4225,13 +4225,13 @@
         <v>5</v>
       </c>
       <c r="U31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4240,10 +4240,10 @@
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -4255,19 +4255,19 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>81</v>
       </c>
       <c r="AI31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="n">
         <v>67</v>
@@ -4314,10 +4314,10 @@
         <v>5.75</v>
       </c>
       <c r="J32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.67</v>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -4460,16 +4460,16 @@
         <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
         <v>11</v>
@@ -4505,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>34</v>
@@ -5037,19 +5037,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
         <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5058,10 +5058,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -5082,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="V38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W38" t="n">
         <v>21</v>
@@ -5091,10 +5091,10 @@
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA38" t="n">
         <v>6.5</v>
@@ -5159,31 +5159,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5204,10 +5204,10 @@
         <v>12</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -5234,16 +5234,16 @@
         <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ39" t="n">
         <v>29</v>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I43" t="n">
         <v>7.8</v>
@@ -5654,64 +5654,64 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M43" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="O43" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="S43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="U43" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V43" t="n">
         <v>8.75</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AB43" t="n">
         <v>24</v>
       </c>
       <c r="AC43" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD43" t="n">
         <v>900</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF43" t="n">
         <v>50</v>
@@ -5720,10 +5720,10 @@
         <v>25</v>
       </c>
       <c r="AH43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI43" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="n">
         <v>110</v>
@@ -5761,13 +5761,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J44" t="n">
         <v>1.13</v>
@@ -5776,79 +5776,79 @@
         <v>4.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M44" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="N44" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="O44" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.47</v>
-      </c>
       <c r="T44" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="U44" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="V44" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W44" t="n">
         <v>13</v>
       </c>
       <c r="X44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AA44" t="n">
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD44" t="n">
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG44" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -5883,13 +5883,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.07</v>
@@ -5898,10 +5898,10 @@
         <v>9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
         <v>2.08</v>
@@ -5925,13 +5925,13 @@
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
@@ -5946,10 +5946,10 @@
         <v>6.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD45" t="n">
         <v>401</v>
@@ -5958,13 +5958,13 @@
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="n">
         <v>41</v>
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
         <v>1.48</v>
@@ -6026,10 +6026,10 @@
         <v>3.4</v>
       </c>
       <c r="N46" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O46" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P46" t="n">
         <v>1.4</v>
@@ -6127,13 +6127,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>2.9</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J47" t="n">
         <v>1.1</v>
@@ -6166,7 +6166,7 @@
         <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
@@ -6211,7 +6211,7 @@
         <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
         <v>34</v>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.1</v>
@@ -6270,10 +6270,10 @@
         <v>2.63</v>
       </c>
       <c r="N48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
         <v>1.53</v>
@@ -6282,19 +6282,19 @@
         <v>2.38</v>
       </c>
       <c r="R48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T48" t="n">
         <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
         <v>15</v>
@@ -6303,13 +6303,13 @@
         <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB48" t="n">
         <v>19</v>
@@ -6324,7 +6324,7 @@
         <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
@@ -6615,31 +6615,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="H51" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K51" t="n">
         <v>15</v>
       </c>
-      <c r="J51" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11</v>
-      </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O51" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P51" t="n">
         <v>1.33</v>
@@ -6648,10 +6648,10 @@
         <v>3.25</v>
       </c>
       <c r="R51" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T51" t="n">
         <v>6</v>
@@ -6660,10 +6660,10 @@
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X51" t="n">
         <v>13</v>
@@ -6672,37 +6672,37 @@
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD51" t="n">
         <v>101</v>
       </c>
       <c r="AE51" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AI51" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AJ51" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52">
@@ -6737,91 +6737,91 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M52" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P52" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R52" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S52" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U52" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="V52" t="n">
         <v>8.75</v>
       </c>
       <c r="W52" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="n">
         <v>20</v>
       </c>
-      <c r="AC52" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>18</v>
-      </c>
       <c r="AH52" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ52" t="n">
         <v>70</v>
@@ -6859,25 +6859,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H53" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M53" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N53" t="n">
         <v>2.15</v>
@@ -6886,10 +6886,10 @@
         <v>1.65</v>
       </c>
       <c r="P53" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R53" t="n">
         <v>1.83</v>
@@ -6898,31 +6898,31 @@
         <v>1.87</v>
       </c>
       <c r="T53" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
         <v>9.75</v>
       </c>
       <c r="W53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X53" t="n">
         <v>22</v>
       </c>
       <c r="Y53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB53" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC53" t="n">
         <v>80</v>
@@ -6931,22 +6931,22 @@
         <v>800</v>
       </c>
       <c r="AE53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="n">
         <v>32</v>
       </c>
       <c r="AJ53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -7103,19 +7103,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J55" t="n">
         <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.29</v>
@@ -7145,13 +7145,13 @@
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V55" t="n">
         <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X55" t="n">
         <v>17</v>
@@ -7160,7 +7160,7 @@
         <v>26</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7178,16 +7178,16 @@
         <v>11</v>
       </c>
       <c r="AF55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7225,13 +7225,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H56" t="n">
         <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7258,13 +7258,13 @@
         <v>2.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U56" t="n">
         <v>8</v>
@@ -7273,7 +7273,7 @@
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
@@ -7288,13 +7288,13 @@
         <v>7.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE56" t="n">
         <v>11</v>
@@ -7303,10 +7303,10 @@
         <v>21</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="n">
         <v>34</v>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7612,16 +7612,16 @@
         <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
         <v>1.91</v>
@@ -7633,16 +7633,16 @@
         <v>8</v>
       </c>
       <c r="U59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W59" t="n">
+        <v>34</v>
+      </c>
+      <c r="X59" t="n">
         <v>29</v>
-      </c>
-      <c r="X59" t="n">
-        <v>26</v>
       </c>
       <c r="Y59" t="n">
         <v>41</v>
@@ -7660,7 +7660,7 @@
         <v>51</v>
       </c>
       <c r="AD59" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE59" t="n">
         <v>7</v>
@@ -7675,7 +7675,7 @@
         <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ59" t="n">
         <v>34</v>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.5</v>
@@ -7734,10 +7734,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J62" t="n">
         <v>1.08</v>
@@ -7984,10 +7984,10 @@
         <v>1.62</v>
       </c>
       <c r="P62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
         <v>1.91</v>
@@ -8005,16 +8005,16 @@
         <v>11</v>
       </c>
       <c r="W62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA62" t="n">
         <v>6</v>
@@ -8026,19 +8026,19 @@
         <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG62" t="n">
         <v>11</v>
       </c>
       <c r="AH62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI62" t="n">
         <v>23</v>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J65" t="n">
         <v>1.11</v>
@@ -8356,10 +8356,10 @@
         <v>2.2</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T65" t="n">
         <v>9</v>
@@ -8383,7 +8383,7 @@
         <v>6</v>
       </c>
       <c r="AA65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB65" t="n">
         <v>21</v>
@@ -8395,7 +8395,7 @@
         <v>101</v>
       </c>
       <c r="AE65" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF65" t="n">
         <v>7.5</v>
@@ -8404,7 +8404,7 @@
         <v>9.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI65" t="n">
         <v>21</v>
@@ -9787,13 +9787,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
         <v>1.05</v>
@@ -9808,10 +9808,10 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O77" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P77" t="n">
         <v>1.4</v>
@@ -9820,58 +9820,58 @@
         <v>2.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T77" t="n">
+        <v>8</v>
+      </c>
+      <c r="U77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V77" t="n">
         <v>8.5</v>
       </c>
-      <c r="U77" t="n">
-        <v>12</v>
-      </c>
-      <c r="V77" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W77" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
         <v>26</v>
       </c>
       <c r="Z77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC77" t="n">
         <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF77" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ77" t="n">
         <v>34</v>
@@ -9909,13 +9909,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H78" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J78" t="n">
         <v>1.1</v>
@@ -9942,22 +9942,22 @@
         <v>2.25</v>
       </c>
       <c r="R78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T78" t="n">
         <v>5.5</v>
       </c>
       <c r="U78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V78" t="n">
         <v>9.5</v>
       </c>
       <c r="W78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X78" t="n">
         <v>19</v>
@@ -9981,16 +9981,16 @@
         <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI78" t="n">
         <v>41</v>
@@ -10043,7 +10043,7 @@
         <v>1.03</v>
       </c>
       <c r="K79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L79" t="n">
         <v>1.14</v>
@@ -10064,25 +10064,25 @@
         <v>3.75</v>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T79" t="n">
         <v>8.5</v>
       </c>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V79" t="n">
         <v>11</v>
       </c>
       <c r="W79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y79" t="n">
         <v>34</v>
@@ -10094,7 +10094,7 @@
         <v>12</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
         <v>81</v>
@@ -10112,7 +10112,7 @@
         <v>41</v>
       </c>
       <c r="AH79" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI79" t="n">
         <v>101</v>
@@ -10869,13 +10869,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H86" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I86" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J86" t="n">
         <v>1.05</v>
@@ -10890,37 +10890,37 @@
         <v>3.5</v>
       </c>
       <c r="N86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S86" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>3</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.91</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
       </c>
       <c r="U86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V86" t="n">
         <v>8.5</v>
       </c>
       <c r="W86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y86" t="n">
         <v>26</v>
@@ -10938,13 +10938,13 @@
         <v>51</v>
       </c>
       <c r="AD86" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF86" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG86" t="n">
         <v>15</v>
@@ -10953,7 +10953,7 @@
         <v>51</v>
       </c>
       <c r="AI86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ86" t="n">
         <v>41</v>
@@ -11113,31 +11113,31 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H88" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I88" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J88" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L88" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M88" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N88" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O88" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P88" t="n">
         <v>1.33</v>
@@ -11170,7 +11170,7 @@
         <v>26</v>
       </c>
       <c r="Z88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA88" t="n">
         <v>8.5</v>
@@ -11182,7 +11182,7 @@
         <v>51</v>
       </c>
       <c r="AD88" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE88" t="n">
         <v>17</v>
@@ -11191,13 +11191,13 @@
         <v>34</v>
       </c>
       <c r="AG88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH88" t="n">
         <v>67</v>
       </c>
       <c r="AI88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ88" t="n">
         <v>41</v>
@@ -11601,13 +11601,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>3.7</v>
       </c>
       <c r="I92" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J92" t="n">
         <v>1.02</v>
@@ -11622,10 +11622,10 @@
         <v>6</v>
       </c>
       <c r="N92" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O92" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P92" t="n">
         <v>1.25</v>
@@ -11640,16 +11640,16 @@
         <v>2.75</v>
       </c>
       <c r="T92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U92" t="n">
         <v>19</v>
       </c>
       <c r="V92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X92" t="n">
         <v>21</v>
@@ -11658,10 +11658,10 @@
         <v>21</v>
       </c>
       <c r="Z92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB92" t="n">
         <v>11</v>
@@ -12821,13 +12821,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H102" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I102" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J102" t="n">
         <v>1.03</v>
@@ -12836,16 +12836,16 @@
         <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M102" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N102" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O102" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P102" t="n">
         <v>1.3</v>
@@ -12863,31 +12863,31 @@
         <v>11</v>
       </c>
       <c r="U102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V102" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W102" t="n">
+        <v>26</v>
+      </c>
+      <c r="X102" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y102" t="n">
         <v>23</v>
-      </c>
-      <c r="X102" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>21</v>
       </c>
       <c r="Z102" t="n">
         <v>15</v>
       </c>
       <c r="AA102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB102" t="n">
         <v>12</v>
       </c>
       <c r="AC102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD102" t="n">
         <v>126</v>
@@ -12896,16 +12896,16 @@
         <v>12</v>
       </c>
       <c r="AF102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH102" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ102" t="n">
         <v>23</v>
@@ -13175,25 +13175,25 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H105" t="n">
         <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L105" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M105" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N105" t="n">
         <v>2.05</v>
@@ -13214,7 +13214,7 @@
         <v>1.91</v>
       </c>
       <c r="T105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U105" t="n">
         <v>11</v>
@@ -13223,10 +13223,10 @@
         <v>9.5</v>
       </c>
       <c r="W105" t="n">
+        <v>23</v>
+      </c>
+      <c r="X105" t="n">
         <v>21</v>
-      </c>
-      <c r="X105" t="n">
-        <v>19</v>
       </c>
       <c r="Y105" t="n">
         <v>29</v>
@@ -13247,16 +13247,16 @@
         <v>251</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF105" t="n">
         <v>15</v>
       </c>
       <c r="AG105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
         <v>26</v>
@@ -13297,19 +13297,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J106" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K106" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L106" t="n">
         <v>1.4</v>
@@ -13318,16 +13318,16 @@
         <v>2.75</v>
       </c>
       <c r="N106" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O106" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P106" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
@@ -13336,10 +13336,10 @@
         <v>1.73</v>
       </c>
       <c r="T106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V106" t="n">
         <v>13</v>
@@ -13550,22 +13550,22 @@
         <v>5.5</v>
       </c>
       <c r="J108" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N108" t="n">
         <v>2.05</v>
       </c>
       <c r="O108" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P108" t="n">
         <v>1.44</v>
@@ -13580,7 +13580,7 @@
         <v>1.73</v>
       </c>
       <c r="T108" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U108" t="n">
         <v>7</v>
@@ -13598,10 +13598,10 @@
         <v>29</v>
       </c>
       <c r="Z108" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA108" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB108" t="n">
         <v>19</v>
@@ -13616,7 +13616,7 @@
         <v>13</v>
       </c>
       <c r="AF108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG108" t="n">
         <v>17</v>
@@ -13666,28 +13666,28 @@
         <v>5.5</v>
       </c>
       <c r="H109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M109" t="n">
         <v>4.33</v>
       </c>
-      <c r="I109" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K109" t="n">
-        <v>13</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M109" t="n">
-        <v>4</v>
-      </c>
       <c r="N109" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O109" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P109" t="n">
         <v>1.33</v>
@@ -13726,13 +13726,13 @@
         <v>8.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE109" t="n">
         <v>7.5</v>
@@ -13750,7 +13750,7 @@
         <v>12</v>
       </c>
       <c r="AJ109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
@@ -13785,91 +13785,91 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.15</v>
+        <v>4.9</v>
       </c>
       <c r="H110" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="J110" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="L110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M110" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="N110" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O110" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P110" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="R110" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S110" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T110" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="U110" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V110" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W110" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="X110" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y110" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z110" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AA110" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AB110" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD110" t="n">
         <v>700</v>
       </c>
       <c r="AE110" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF110" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH110" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ110" t="n">
         <v>29</v>
@@ -13907,13 +13907,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I111" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J111" t="n">
         <v>1.07</v>
@@ -13928,7 +13928,7 @@
         <v>3.05</v>
       </c>
       <c r="N111" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O111" t="n">
         <v>1.75</v>
@@ -13937,28 +13937,28 @@
         <v>1.45</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R111" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S111" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T111" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U111" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="V111" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W111" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X111" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y111" t="n">
         <v>28</v>
@@ -13967,10 +13967,10 @@
         <v>6.9</v>
       </c>
       <c r="AA111" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB111" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC111" t="n">
         <v>80</v>
@@ -13979,22 +13979,22 @@
         <v>700</v>
       </c>
       <c r="AE111" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG111" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI111" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ111" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
@@ -14029,13 +14029,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="H112" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I112" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J112" t="n">
         <v>1.09</v>
@@ -14065,25 +14065,25 @@
         <v>1.75</v>
       </c>
       <c r="S112" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T112" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="U112" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="V112" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W112" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X112" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y112" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z112" t="n">
         <v>6.1</v>
@@ -14092,7 +14092,7 @@
         <v>5.4</v>
       </c>
       <c r="AB112" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC112" t="n">
         <v>60</v>
@@ -14101,19 +14101,19 @@
         <v>500</v>
       </c>
       <c r="AE112" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AF112" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG112" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH112" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ112" t="n">
         <v>30</v>
@@ -14151,22 +14151,22 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H113" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I113" t="n">
         <v>4.15</v>
       </c>
       <c r="J113" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="L113" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M113" t="n">
         <v>3.2</v>
@@ -14175,61 +14175,61 @@
         <v>1.9</v>
       </c>
       <c r="O113" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P113" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R113" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S113" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T113" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U113" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V113" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W113" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X113" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z113" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA113" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB113" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE113" t="n">
         <v>11.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG113" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH113" t="n">
         <v>70</v>
@@ -14273,13 +14273,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H114" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J114" t="n">
         <v>1.06</v>
@@ -14291,7 +14291,7 @@
         <v>1.32</v>
       </c>
       <c r="M114" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N114" t="n">
         <v>1.93</v>
@@ -14312,19 +14312,19 @@
         <v>1.93</v>
       </c>
       <c r="T114" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U114" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V114" t="n">
         <v>9</v>
       </c>
       <c r="W114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X114" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y114" t="n">
         <v>29</v>
@@ -14339,19 +14339,19 @@
         <v>14.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD114" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE114" t="n">
         <v>9</v>
       </c>
       <c r="AF114" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH114" t="n">
         <v>35</v>
@@ -14395,37 +14395,37 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I115" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="J115" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K115" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="L115" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M115" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="N115" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O115" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P115" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="R115" t="n">
         <v>1.65</v>
@@ -14434,34 +14434,34 @@
         <v>2.1</v>
       </c>
       <c r="T115" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U115" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V115" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="W115" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X115" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y115" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z115" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB115" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC115" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD115" t="n">
         <v>400</v>
@@ -14470,19 +14470,19 @@
         <v>8.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG115" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH115" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AI115" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AJ115" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
@@ -14517,37 +14517,37 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="J116" t="n">
         <v>1.08</v>
       </c>
       <c r="K116" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="L116" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M116" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="N116" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O116" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P116" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R116" t="n">
         <v>1.93</v>
@@ -14556,52 +14556,52 @@
         <v>1.78</v>
       </c>
       <c r="T116" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U116" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V116" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W116" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X116" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z116" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB116" t="n">
         <v>16.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD116" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE116" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF116" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG116" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI116" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="n">
         <v>50</v>
@@ -14639,70 +14639,70 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="H117" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="I117" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="J117" t="n">
         <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="L117" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M117" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="N117" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O117" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="P117" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="R117" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S117" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T117" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="U117" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V117" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W117" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="X117" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y117" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Z117" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB117" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC117" t="n">
         <v>150</v>
@@ -14711,19 +14711,19 @@
         <v>1000</v>
       </c>
       <c r="AE117" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF117" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AG117" t="n">
         <v>8.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AI117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ117" t="n">
         <v>35</v>
@@ -15595,13 +15595,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.47</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="I125" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -15630,31 +15630,31 @@
         <v>1.68</v>
       </c>
       <c r="T125" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U125" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="V125" t="n">
         <v>8.25</v>
       </c>
       <c r="W125" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="X125" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y125" t="n">
         <v>32</v>
       </c>
       <c r="Z125" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AB125" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC125" t="n">
         <v>70</v>
@@ -15663,22 +15663,22 @@
         <v>500</v>
       </c>
       <c r="AE125" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AF125" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG125" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH125" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI125" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ125" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
@@ -15713,10 +15713,10 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H126" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3.7</v>
@@ -15730,10 +15730,10 @@
         <v>2.85</v>
       </c>
       <c r="N126" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O126" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -15742,37 +15742,37 @@
         <v>2.4</v>
       </c>
       <c r="R126" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S126" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T126" t="n">
         <v>5.4</v>
       </c>
       <c r="U126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V126" t="n">
         <v>7.2</v>
       </c>
-      <c r="V126" t="n">
-        <v>7.3</v>
-      </c>
       <c r="W126" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X126" t="n">
         <v>14</v>
       </c>
       <c r="Y126" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z126" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AA126" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB126" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC126" t="n">
         <v>60</v>
@@ -15781,7 +15781,7 @@
         <v>450</v>
       </c>
       <c r="AE126" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF126" t="n">
         <v>15.5</v>
@@ -15790,10 +15790,10 @@
         <v>10.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ126" t="n">
         <v>35</v>
@@ -16062,16 +16062,16 @@
         <v>1.25</v>
       </c>
       <c r="H129" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J129" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L129" t="n">
         <v>1.17</v>
@@ -16104,7 +16104,7 @@
         <v>6.5</v>
       </c>
       <c r="V129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W129" t="n">
         <v>7.5</v>
@@ -16128,10 +16128,10 @@
         <v>81</v>
       </c>
       <c r="AD129" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF129" t="n">
         <v>51</v>
@@ -16202,10 +16202,10 @@
         <v>3.4</v>
       </c>
       <c r="N130" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -16303,13 +16303,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J131" t="n">
         <v>1.03</v>
@@ -16348,7 +16348,7 @@
         <v>13</v>
       </c>
       <c r="V131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W131" t="n">
         <v>21</v>
@@ -16378,7 +16378,7 @@
         <v>15</v>
       </c>
       <c r="AF131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG131" t="n">
         <v>12</v>
@@ -16425,13 +16425,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H132" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I132" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -16439,13 +16439,13 @@
         <v>1.19</v>
       </c>
       <c r="M132" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N132" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O132" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
@@ -16453,10 +16453,10 @@
         <v>1.5</v>
       </c>
       <c r="S132" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T132" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="U132" t="n">
         <v>15</v>
@@ -16468,19 +16468,19 @@
         <v>28</v>
       </c>
       <c r="X132" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z132" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA132" t="n">
         <v>7.4</v>
       </c>
       <c r="AB132" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC132" t="n">
         <v>40</v>
@@ -16489,19 +16489,19 @@
         <v>250</v>
       </c>
       <c r="AE132" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF132" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG132" t="n">
         <v>9.5</v>
       </c>
       <c r="AH132" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI132" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ132" t="n">
         <v>22</v>
@@ -16571,7 +16571,7 @@
         <v>1.78</v>
       </c>
       <c r="S133" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T133" t="n">
         <v>7.5</v>
@@ -16589,7 +16589,7 @@
         <v>11.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z133" t="n">
         <v>13</v>
@@ -16598,10 +16598,10 @@
         <v>8.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC133" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD133" t="n">
         <v>600</v>
@@ -16622,7 +16622,7 @@
         <v>60</v>
       </c>
       <c r="AJ133" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
@@ -16657,13 +16657,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I134" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -16671,13 +16671,13 @@
         <v>1.25</v>
       </c>
       <c r="M134" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N134" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O134" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P134" t="n">
         <v>1.39</v>
@@ -16686,61 +16686,61 @@
         <v>2.55</v>
       </c>
       <c r="R134" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S134" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T134" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U134" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V134" t="n">
         <v>8</v>
       </c>
-      <c r="V134" t="n">
-        <v>7.9</v>
-      </c>
       <c r="W134" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X134" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z134" t="n">
         <v>10.75</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB134" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD134" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE134" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF134" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG134" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI134" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ134" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
@@ -16778,10 +16778,10 @@
         <v>2.95</v>
       </c>
       <c r="H135" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I135" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -16804,13 +16804,13 @@
         <v>2.35</v>
       </c>
       <c r="R135" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S135" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T135" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="U135" t="n">
         <v>14</v>
@@ -16822,16 +16822,16 @@
         <v>37</v>
       </c>
       <c r="X135" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z135" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA135" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB135" t="n">
         <v>16</v>
@@ -16843,22 +16843,22 @@
         <v>900</v>
       </c>
       <c r="AE135" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AF135" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG135" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH135" t="n">
         <v>26</v>
       </c>
       <c r="AI135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ135" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136">
@@ -16899,7 +16899,7 @@
         <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -16907,7 +16907,7 @@
         <v>1.22</v>
       </c>
       <c r="M136" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N136" t="n">
         <v>1.65</v>
@@ -16924,10 +16924,10 @@
         <v>2.15</v>
       </c>
       <c r="T136" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U136" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V136" t="n">
         <v>11</v>
@@ -16936,13 +16936,13 @@
         <v>45</v>
       </c>
       <c r="X136" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y136" t="n">
         <v>28</v>
       </c>
       <c r="Z136" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA136" t="n">
         <v>6.6</v>
@@ -16960,7 +16960,7 @@
         <v>9</v>
       </c>
       <c r="AF136" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG136" t="n">
         <v>8.5</v>
@@ -16969,7 +16969,7 @@
         <v>21</v>
       </c>
       <c r="AI136" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ136" t="n">
         <v>22</v>
@@ -17007,13 +17007,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H137" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -17036,46 +17036,46 @@
         <v>2.57</v>
       </c>
       <c r="R137" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S137" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T137" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U137" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V137" t="n">
         <v>8.25</v>
       </c>
       <c r="W137" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="X137" t="n">
         <v>14.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z137" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC137" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD137" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE137" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF137" t="n">
         <v>22</v>
@@ -17084,10 +17084,10 @@
         <v>12.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI137" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ137" t="n">
         <v>37</v>
@@ -17146,10 +17146,10 @@
         <v>3</v>
       </c>
       <c r="N138" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O138" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P138" t="n">
         <v>1.5</v>
@@ -17369,13 +17369,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I140" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J140" t="n">
         <v>1.05</v>
@@ -17390,10 +17390,10 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O140" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17408,25 +17408,25 @@
         <v>1.91</v>
       </c>
       <c r="T140" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U140" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V140" t="n">
         <v>8.5</v>
       </c>
       <c r="W140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y140" t="n">
         <v>26</v>
       </c>
       <c r="Z140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA140" t="n">
         <v>7</v>
@@ -17444,16 +17444,16 @@
         <v>13</v>
       </c>
       <c r="AF140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG140" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH140" t="n">
         <v>51</v>
       </c>
       <c r="AI140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ140" t="n">
         <v>41</v>
@@ -17506,16 +17506,16 @@
         <v>11</v>
       </c>
       <c r="L141" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M141" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N141" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17613,13 +17613,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H142" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I142" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17634,16 +17634,16 @@
         <v>3.75</v>
       </c>
       <c r="N142" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P142" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q142" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R142" t="n">
         <v>1.91</v>
@@ -17652,7 +17652,7 @@
         <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U142" t="n">
         <v>7</v>
@@ -17661,16 +17661,16 @@
         <v>8.5</v>
       </c>
       <c r="W142" t="n">
+        <v>11</v>
+      </c>
+      <c r="X142" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z142" t="n">
         <v>10</v>
-      </c>
-      <c r="X142" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y142" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z142" t="n">
-        <v>11</v>
       </c>
       <c r="AA142" t="n">
         <v>7.5</v>
@@ -17685,7 +17685,7 @@
         <v>301</v>
       </c>
       <c r="AE142" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF142" t="n">
         <v>34</v>
@@ -18101,31 +18101,31 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H146" t="n">
         <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J146" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M146" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O146" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P146" t="n">
         <v>1.44</v>
@@ -18146,10 +18146,10 @@
         <v>15</v>
       </c>
       <c r="V146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W146" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X146" t="n">
         <v>26</v>
@@ -18158,7 +18158,7 @@
         <v>34</v>
       </c>
       <c r="Z146" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA146" t="n">
         <v>6</v>
@@ -18173,7 +18173,7 @@
         <v>251</v>
       </c>
       <c r="AE146" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF146" t="n">
         <v>11</v>
@@ -18589,13 +18589,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J150" t="n">
         <v>1.05</v>
@@ -18610,10 +18610,10 @@
         <v>3.75</v>
       </c>
       <c r="N150" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O150" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P150" t="n">
         <v>1.36</v>
@@ -18637,10 +18637,10 @@
         <v>10</v>
       </c>
       <c r="W150" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X150" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y150" t="n">
         <v>26</v>
@@ -18661,10 +18661,10 @@
         <v>151</v>
       </c>
       <c r="AE150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG150" t="n">
         <v>10</v>
@@ -18676,7 +18676,7 @@
         <v>21</v>
       </c>
       <c r="AJ150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
@@ -18955,13 +18955,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I153" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J153" t="n">
         <v>1.07</v>
@@ -18988,10 +18988,10 @@
         <v>2.5</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S153" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T153" t="n">
         <v>6.5</v>
@@ -19000,19 +19000,19 @@
         <v>9</v>
       </c>
       <c r="V153" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y153" t="n">
         <v>34</v>
       </c>
       <c r="Z153" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA153" t="n">
         <v>6</v>
@@ -19024,13 +19024,13 @@
         <v>51</v>
       </c>
       <c r="AD153" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG153" t="n">
         <v>13</v>
@@ -19083,7 +19083,7 @@
         <v>3.6</v>
       </c>
       <c r="I154" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J154" t="n">
         <v>1.05</v>
@@ -19134,13 +19134,13 @@
         <v>41</v>
       </c>
       <c r="Z154" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA154" t="n">
         <v>7</v>
       </c>
       <c r="AB154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC154" t="n">
         <v>51</v>
@@ -19158,13 +19158,13 @@
         <v>8.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI154" t="n">
         <v>15</v>
       </c>
       <c r="AJ154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
@@ -19199,46 +19199,46 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H155" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I155" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J155" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L155" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M155" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N155" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O155" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="P155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R155" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S155" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U155" t="n">
         <v>29</v>
@@ -19256,10 +19256,10 @@
         <v>41</v>
       </c>
       <c r="Z155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB155" t="n">
         <v>17</v>
@@ -19268,10 +19268,10 @@
         <v>51</v>
       </c>
       <c r="AD155" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF155" t="n">
         <v>8</v>
@@ -19280,7 +19280,7 @@
         <v>8.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI155" t="n">
         <v>12</v>
@@ -19809,31 +19809,31 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H160" t="n">
         <v>3.1</v>
       </c>
       <c r="I160" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J160" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L160" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M160" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N160" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O160" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P160" t="n">
         <v>1.44</v>
@@ -19854,13 +19854,13 @@
         <v>10</v>
       </c>
       <c r="V160" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W160" t="n">
+        <v>21</v>
+      </c>
+      <c r="X160" t="n">
         <v>19</v>
-      </c>
-      <c r="X160" t="n">
-        <v>17</v>
       </c>
       <c r="Y160" t="n">
         <v>29</v>
@@ -19872,7 +19872,7 @@
         <v>6</v>
       </c>
       <c r="AB160" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC160" t="n">
         <v>51</v>
@@ -19887,10 +19887,10 @@
         <v>17</v>
       </c>
       <c r="AG160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH160" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI160" t="n">
         <v>29</v>
@@ -19934,16 +19934,16 @@
         <v>2.6</v>
       </c>
       <c r="H161" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I161" t="n">
         <v>2.5</v>
       </c>
       <c r="J161" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L161" t="n">
         <v>1.3</v>
@@ -19952,16 +19952,16 @@
         <v>3.4</v>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O161" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P161" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R161" t="n">
         <v>1.8</v>
@@ -19970,7 +19970,7 @@
         <v>1.91</v>
       </c>
       <c r="T161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U161" t="n">
         <v>13</v>
@@ -19985,10 +19985,10 @@
         <v>21</v>
       </c>
       <c r="Y161" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA161" t="n">
         <v>6.5</v>
@@ -20006,7 +20006,7 @@
         <v>8.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG161" t="n">
         <v>10</v>
@@ -20018,7 +20018,7 @@
         <v>21</v>
       </c>
       <c r="AJ161" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
@@ -20053,67 +20053,67 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="H162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M162" t="n">
         <v>3.5</v>
       </c>
-      <c r="I162" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K162" t="n">
+      <c r="N162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2</v>
+      </c>
+      <c r="T162" t="n">
+        <v>9</v>
+      </c>
+      <c r="U162" t="n">
         <v>12</v>
       </c>
-      <c r="L162" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M162" t="n">
-        <v>4</v>
-      </c>
-      <c r="N162" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O162" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P162" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>3</v>
-      </c>
-      <c r="R162" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S162" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T162" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U162" t="n">
+      <c r="V162" t="n">
         <v>10</v>
       </c>
-      <c r="V162" t="n">
-        <v>9</v>
-      </c>
       <c r="W162" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="X162" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y162" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z162" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB162" t="n">
         <v>13</v>
@@ -20125,22 +20125,22 @@
         <v>151</v>
       </c>
       <c r="AE162" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF162" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG162" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH162" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -21151,70 +21151,70 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>4.25</v>
       </c>
       <c r="H171" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I171" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="J171" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K171" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="L171" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M171" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="N171" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O171" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P171" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q171" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R171" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S171" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T171" t="n">
-        <v>10.75</v>
+        <v>14.5</v>
       </c>
       <c r="U171" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V171" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="W171" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="X171" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="Y171" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z171" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA171" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AB171" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC171" t="n">
         <v>50</v>
@@ -21223,22 +21223,22 @@
         <v>350</v>
       </c>
       <c r="AE171" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF171" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG171" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI171" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ171" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
@@ -21517,10 +21517,10 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H174" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I174" t="n">
         <v>13</v>
@@ -21529,58 +21529,58 @@
         <v>1.04</v>
       </c>
       <c r="K174" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L174" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M174" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N174" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O174" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P174" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="R174" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S174" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T174" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U174" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="V174" t="n">
         <v>9</v>
       </c>
       <c r="W174" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X174" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y174" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z174" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB174" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC174" t="n">
         <v>150</v>
@@ -21589,7 +21589,7 @@
         <v>101</v>
       </c>
       <c r="AE174" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF174" t="n">
         <v>110</v>
@@ -21598,7 +21598,7 @@
         <v>40</v>
       </c>
       <c r="AH174" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AI174" t="n">
         <v>200</v>
@@ -22862,10 +22862,10 @@
         <v>1.7</v>
       </c>
       <c r="H185" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I185" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J185" t="n">
         <v>1.05</v>
@@ -22874,16 +22874,16 @@
         <v>11</v>
       </c>
       <c r="L185" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M185" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N185" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O185" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P185" t="n">
         <v>1.4</v>
@@ -22910,7 +22910,7 @@
         <v>13</v>
       </c>
       <c r="X185" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y185" t="n">
         <v>26</v>
@@ -22984,7 +22984,7 @@
         <v>2.63</v>
       </c>
       <c r="H186" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I186" t="n">
         <v>3.1</v>
@@ -22996,31 +22996,31 @@
         <v>5.5</v>
       </c>
       <c r="L186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P186" t="n">
         <v>1.67</v>
       </c>
-      <c r="M186" t="n">
+      <c r="Q186" t="n">
         <v>2.1</v>
       </c>
-      <c r="N186" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O186" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P186" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R186" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S186" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T186" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U186" t="n">
         <v>11</v>
@@ -23029,7 +23029,7 @@
         <v>12</v>
       </c>
       <c r="W186" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X186" t="n">
         <v>29</v>
@@ -23047,7 +23047,7 @@
         <v>21</v>
       </c>
       <c r="AC186" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD186" t="n">
         <v>101</v>
@@ -23362,10 +23362,10 @@
         <v>7.5</v>
       </c>
       <c r="L189" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M189" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N189" t="n">
         <v>2.1</v>
@@ -23416,7 +23416,7 @@
         <v>51</v>
       </c>
       <c r="AD189" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE189" t="n">
         <v>9.5</v>
@@ -23538,7 +23538,7 @@
         <v>51</v>
       </c>
       <c r="AD190" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE190" t="n">
         <v>13</v>
@@ -23835,13 +23835,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H193" t="n">
         <v>3.7</v>
       </c>
       <c r="I193" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J193" t="n">
         <v>1.04</v>
@@ -23877,7 +23877,7 @@
         <v>8.5</v>
       </c>
       <c r="U193" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V193" t="n">
         <v>8.5</v>
@@ -23916,7 +23916,7 @@
         <v>15</v>
       </c>
       <c r="AH193" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI193" t="n">
         <v>34</v>
@@ -24689,13 +24689,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H200" t="n">
         <v>3.3</v>
       </c>
       <c r="I200" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J200" t="n">
         <v>1.05</v>
@@ -24710,10 +24710,10 @@
         <v>3.75</v>
       </c>
       <c r="N200" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O200" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P200" t="n">
         <v>1.4</v>
@@ -24740,7 +24740,7 @@
         <v>29</v>
       </c>
       <c r="X200" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y200" t="n">
         <v>29</v>
@@ -24758,7 +24758,7 @@
         <v>41</v>
       </c>
       <c r="AD200" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE200" t="n">
         <v>9</v>
@@ -25664,16 +25664,16 @@
         <v>2.38</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I208" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J208" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K208" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L208" t="n">
         <v>1.4</v>
@@ -25682,25 +25682,25 @@
         <v>2.75</v>
       </c>
       <c r="N208" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O208" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P208" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R208" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S208" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T208" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U208" t="n">
         <v>11</v>
@@ -25718,22 +25718,22 @@
         <v>34</v>
       </c>
       <c r="Z208" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA208" t="n">
         <v>6</v>
       </c>
       <c r="AB208" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC208" t="n">
         <v>51</v>
       </c>
       <c r="AD208" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE208" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF208" t="n">
         <v>15</v>
@@ -25745,7 +25745,7 @@
         <v>34</v>
       </c>
       <c r="AI208" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ208" t="n">
         <v>41</v>
@@ -25792,13 +25792,13 @@
         <v>1.73</v>
       </c>
       <c r="J209" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K209" t="n">
         <v>9</v>
       </c>
       <c r="L209" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M209" t="n">
         <v>3.25</v>
@@ -25905,13 +25905,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I210" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J210" t="n">
         <v>1.04</v>
@@ -25938,22 +25938,22 @@
         <v>3</v>
       </c>
       <c r="R210" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S210" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T210" t="n">
         <v>8.5</v>
       </c>
       <c r="U210" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V210" t="n">
         <v>8.5</v>
       </c>
       <c r="W210" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X210" t="n">
         <v>15</v>
@@ -25962,10 +25962,10 @@
         <v>23</v>
       </c>
       <c r="Z210" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA210" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB210" t="n">
         <v>13</v>
@@ -25977,22 +25977,22 @@
         <v>151</v>
       </c>
       <c r="AE210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF210" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG210" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH210" t="n">
         <v>41</v>
       </c>
       <c r="AI210" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ210" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211">
@@ -26027,7 +26027,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H211" t="n">
         <v>3.3</v>
@@ -26036,22 +26036,22 @@
         <v>3.1</v>
       </c>
       <c r="J211" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K211" t="n">
         <v>15</v>
       </c>
       <c r="L211" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M211" t="n">
         <v>5</v>
       </c>
       <c r="N211" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O211" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P211" t="n">
         <v>1.3</v>
@@ -26066,7 +26066,7 @@
         <v>2.5</v>
       </c>
       <c r="T211" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U211" t="n">
         <v>13</v>
@@ -26084,7 +26084,7 @@
         <v>21</v>
       </c>
       <c r="Z211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA211" t="n">
         <v>6.5</v>
@@ -26102,7 +26102,7 @@
         <v>13</v>
       </c>
       <c r="AF211" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG211" t="n">
         <v>11</v>
@@ -26149,31 +26149,31 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H212" t="n">
         <v>3.1</v>
       </c>
       <c r="I212" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J212" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K212" t="n">
         <v>9.5</v>
       </c>
       <c r="L212" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M212" t="n">
         <v>3.5</v>
       </c>
       <c r="N212" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O212" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P212" t="n">
         <v>1.4</v>
@@ -26182,10 +26182,10 @@
         <v>2.75</v>
       </c>
       <c r="R212" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S212" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T212" t="n">
         <v>10</v>
@@ -26197,13 +26197,13 @@
         <v>11</v>
       </c>
       <c r="W212" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X212" t="n">
         <v>23</v>
       </c>
       <c r="Y212" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z212" t="n">
         <v>9.5</v>
@@ -26212,7 +26212,7 @@
         <v>6</v>
       </c>
       <c r="AB212" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC212" t="n">
         <v>41</v>
@@ -26221,19 +26221,19 @@
         <v>201</v>
       </c>
       <c r="AE212" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG212" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH212" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI212" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ212" t="n">
         <v>29</v>
@@ -26271,31 +26271,31 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H213" t="n">
         <v>3.4</v>
       </c>
       <c r="I213" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J213" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K213" t="n">
         <v>13</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M213" t="n">
         <v>4.33</v>
       </c>
       <c r="N213" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O213" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P213" t="n">
         <v>1.33</v>
@@ -26310,7 +26310,7 @@
         <v>2.25</v>
       </c>
       <c r="T213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U213" t="n">
         <v>13</v>
@@ -26322,7 +26322,7 @@
         <v>23</v>
       </c>
       <c r="X213" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y213" t="n">
         <v>23</v>
@@ -26334,10 +26334,10 @@
         <v>6.5</v>
       </c>
       <c r="AB213" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC213" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD213" t="n">
         <v>126</v>
@@ -26346,7 +26346,7 @@
         <v>12</v>
       </c>
       <c r="AF213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG213" t="n">
         <v>11</v>
@@ -26393,22 +26393,22 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H214" t="n">
         <v>3.4</v>
       </c>
       <c r="I214" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J214" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K214" t="n">
         <v>13</v>
       </c>
       <c r="L214" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M214" t="n">
         <v>4</v>
@@ -26438,10 +26438,10 @@
         <v>13</v>
       </c>
       <c r="V214" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W214" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X214" t="n">
         <v>19</v>
@@ -26471,10 +26471,10 @@
         <v>15</v>
       </c>
       <c r="AG214" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH214" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI214" t="n">
         <v>21</v>
@@ -26524,13 +26524,13 @@
         <v>4.2</v>
       </c>
       <c r="J215" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K215" t="n">
         <v>13</v>
       </c>
       <c r="L215" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M215" t="n">
         <v>4.33</v>
@@ -26646,13 +26646,13 @@
         <v>3.6</v>
       </c>
       <c r="J216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K216" t="n">
         <v>15</v>
       </c>
       <c r="L216" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M216" t="n">
         <v>5</v>
@@ -26768,22 +26768,22 @@
         <v>5</v>
       </c>
       <c r="J217" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L217" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M217" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N217" t="n">
         <v>2.05</v>
       </c>
       <c r="O217" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P217" t="n">
         <v>1.44</v>
@@ -26792,10 +26792,10 @@
         <v>2.63</v>
       </c>
       <c r="R217" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S217" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T217" t="n">
         <v>6.5</v>
@@ -26828,7 +26828,7 @@
         <v>51</v>
       </c>
       <c r="AD217" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE217" t="n">
         <v>12</v>
@@ -26881,19 +26881,19 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J218" t="n">
         <v>1.04</v>
       </c>
       <c r="K218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L218" t="n">
         <v>1.22</v>
@@ -26902,7 +26902,7 @@
         <v>4</v>
       </c>
       <c r="N218" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O218" t="n">
         <v>2.05</v>
@@ -26914,13 +26914,13 @@
         <v>3</v>
       </c>
       <c r="R218" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S218" t="n">
         <v>2.2</v>
       </c>
       <c r="T218" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U218" t="n">
         <v>13</v>
@@ -26938,7 +26938,7 @@
         <v>23</v>
       </c>
       <c r="Z218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA218" t="n">
         <v>6.5</v>
@@ -26959,7 +26959,7 @@
         <v>15</v>
       </c>
       <c r="AG218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH218" t="n">
         <v>29</v>
@@ -27003,7 +27003,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H219" t="n">
         <v>3.5</v>
@@ -27018,34 +27018,34 @@
         <v>13</v>
       </c>
       <c r="L219" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M219" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N219" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O219" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P219" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R219" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S219" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T219" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U219" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V219" t="n">
         <v>8.5</v>
@@ -27054,16 +27054,16 @@
         <v>17</v>
       </c>
       <c r="X219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y219" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z219" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA219" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB219" t="n">
         <v>13</v>
@@ -27075,10 +27075,10 @@
         <v>151</v>
       </c>
       <c r="AE219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG219" t="n">
         <v>13</v>
@@ -27146,10 +27146,10 @@
         <v>4</v>
       </c>
       <c r="N220" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O220" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P220" t="n">
         <v>1.33</v>
@@ -27158,10 +27158,10 @@
         <v>3.25</v>
       </c>
       <c r="R220" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S220" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T220" t="n">
         <v>7.5</v>
@@ -27738,10 +27738,10 @@
         <v>2.65</v>
       </c>
       <c r="H225" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I225" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J225" t="n">
         <v>1.08</v>
@@ -27768,13 +27768,13 @@
         <v>2.5</v>
       </c>
       <c r="R225" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S225" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T225" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U225" t="n">
         <v>12.5</v>
@@ -27786,7 +27786,7 @@
         <v>30</v>
       </c>
       <c r="X225" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y225" t="n">
         <v>37</v>
@@ -27795,7 +27795,7 @@
         <v>6.5</v>
       </c>
       <c r="AA225" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB225" t="n">
         <v>15.5</v>
@@ -27804,13 +27804,13 @@
         <v>80</v>
       </c>
       <c r="AD225" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE225" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AF225" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG225" t="n">
         <v>9.75</v>
@@ -27822,7 +27822,7 @@
         <v>22</v>
       </c>
       <c r="AJ225" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226">
@@ -27857,7 +27857,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H226" t="n">
         <v>3.4</v>
@@ -27866,37 +27866,37 @@
         <v>2.77</v>
       </c>
       <c r="J226" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K226" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L226" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M226" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N226" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O226" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="P226" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q226" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R226" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S226" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="T226" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U226" t="n">
         <v>12.5</v>
@@ -27914,10 +27914,10 @@
         <v>23</v>
       </c>
       <c r="Z226" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA226" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB226" t="n">
         <v>12</v>
@@ -27926,13 +27926,13 @@
         <v>45</v>
       </c>
       <c r="AD226" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE226" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF226" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG226" t="n">
         <v>10.25</v>
@@ -27941,10 +27941,10 @@
         <v>35</v>
       </c>
       <c r="AI226" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ226" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227">
@@ -27979,13 +27979,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="H227" t="n">
         <v>3.3</v>
       </c>
       <c r="I227" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="J227" t="n">
         <v>1.07</v>
@@ -28018,22 +28018,22 @@
         <v>1.9</v>
       </c>
       <c r="T227" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U227" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="V227" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W227" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="X227" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y227" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z227" t="n">
         <v>7</v>
@@ -28051,22 +28051,22 @@
         <v>600</v>
       </c>
       <c r="AE227" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF227" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG227" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH227" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI227" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ227" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -28140,10 +28140,10 @@
         <v>1.83</v>
       </c>
       <c r="T228" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U228" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V228" t="n">
         <v>9.5</v>
@@ -28173,7 +28173,7 @@
         <v>700</v>
       </c>
       <c r="AE228" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF228" t="n">
         <v>13.5</v>
@@ -28182,13 +28182,13 @@
         <v>10.5</v>
       </c>
       <c r="AH228" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI228" t="n">
         <v>26</v>
       </c>
       <c r="AJ228" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229">
@@ -28223,82 +28223,82 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H229" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I229" t="n">
         <v>3.1</v>
       </c>
       <c r="J229" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K229" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="L229" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M229" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="N229" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O229" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P229" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R229" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S229" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T229" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U229" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V229" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W229" t="n">
         <v>21</v>
       </c>
       <c r="X229" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y229" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z229" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA229" t="n">
         <v>6.2</v>
       </c>
       <c r="AB229" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC229" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD229" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE229" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF229" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG229" t="n">
         <v>11.5</v>
@@ -28307,7 +28307,7 @@
         <v>40</v>
       </c>
       <c r="AI229" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ229" t="n">
         <v>45</v>
@@ -28345,13 +28345,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H230" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I230" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="J230" t="n">
         <v>1.04</v>
@@ -28378,19 +28378,19 @@
         <v>2.95</v>
       </c>
       <c r="R230" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S230" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T230" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="U230" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V230" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W230" t="n">
         <v>35</v>
@@ -28405,10 +28405,10 @@
         <v>8.25</v>
       </c>
       <c r="AA230" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB230" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC230" t="n">
         <v>45</v>
@@ -28417,19 +28417,19 @@
         <v>300</v>
       </c>
       <c r="AE230" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF230" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG230" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH230" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI230" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ230" t="n">
         <v>23</v>
@@ -28467,13 +28467,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="H231" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I231" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J231" t="n">
         <v>1.06</v>
@@ -28500,25 +28500,25 @@
         <v>2.62</v>
       </c>
       <c r="R231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S231" t="n">
         <v>1.87</v>
       </c>
-      <c r="S231" t="n">
-        <v>1.85</v>
-      </c>
       <c r="T231" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U231" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V231" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W231" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="X231" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y231" t="n">
         <v>30</v>
@@ -28527,10 +28527,10 @@
         <v>7.1</v>
       </c>
       <c r="AA231" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB231" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC231" t="n">
         <v>80</v>
@@ -28539,22 +28539,22 @@
         <v>700</v>
       </c>
       <c r="AE231" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF231" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG231" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH231" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI231" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ231" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232">
@@ -28732,7 +28732,7 @@
         <v>3.4</v>
       </c>
       <c r="N233" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O233" t="n">
         <v>1.9</v>
@@ -28765,7 +28765,7 @@
         <v>23</v>
       </c>
       <c r="Y233" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z233" t="n">
         <v>7.7</v>
@@ -28798,7 +28798,7 @@
         <v>18</v>
       </c>
       <c r="AJ233" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234">
@@ -28851,7 +28851,7 @@
         <v>1.28</v>
       </c>
       <c r="M234" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N234" t="n">
         <v>1.82</v>
@@ -29195,13 +29195,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H237" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="J237" t="n">
         <v>1.11</v>
@@ -29210,22 +29210,22 @@
         <v>6</v>
       </c>
       <c r="L237" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M237" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="N237" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O237" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P237" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R237" t="n">
         <v>2.07</v>
@@ -29243,19 +29243,19 @@
         <v>8.75</v>
       </c>
       <c r="W237" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X237" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y237" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z237" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AA237" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB237" t="n">
         <v>20</v>
@@ -29267,10 +29267,10 @@
         <v>900</v>
       </c>
       <c r="AE237" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF237" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG237" t="n">
         <v>16</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-19.xlsx
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I9" t="n">
         <v>13</v>
@@ -1513,25 +1513,25 @@
         <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.95</v>
@@ -1540,13 +1540,13 @@
         <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -1558,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>26</v>
@@ -1570,19 +1570,19 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI9" t="n">
         <v>81</v>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2632,40 +2632,40 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2674,13 +2674,13 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI18" t="n">
         <v>51</v>
@@ -3210,40 +3210,40 @@
         <v>5.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>1.62</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="O23" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.95</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -3264,7 +3264,7 @@
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3276,7 +3276,7 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
@@ -3332,10 +3332,10 @@
         <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3350,25 +3350,25 @@
         <v>2.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
         <v>7</v>
@@ -3386,7 +3386,7 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3395,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
@@ -3404,19 +3404,19 @@
         <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
         <v>51</v>
       </c>
       <c r="AJ24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
         <v>1.13</v>
@@ -3484,22 +3484,22 @@
         <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
         <v>5.5</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
@@ -3514,7 +3514,7 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>81</v>
@@ -3523,10 +3523,10 @@
         <v>501</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3817,19 +3817,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.57</v>
@@ -3856,16 +3856,16 @@
         <v>1.57</v>
       </c>
       <c r="T28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>29</v>
@@ -3892,13 +3892,13 @@
         <v>6.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
@@ -3948,10 +3948,10 @@
         <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.62</v>
@@ -3978,16 +3978,16 @@
         <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4023,7 +4023,7 @@
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
         <v>1.13</v>
@@ -4103,10 +4103,10 @@
         <v>5</v>
       </c>
       <c r="U30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
         <v>19</v>
@@ -4133,7 +4133,7 @@
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>17</v>
@@ -4183,19 +4183,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
         <v>1.44</v>
@@ -4204,10 +4204,10 @@
         <v>2.63</v>
       </c>
       <c r="N31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
         <v>1.53</v>
@@ -4240,7 +4240,7 @@
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
         <v>29</v>
@@ -4377,7 +4377,7 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>26</v>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -4436,16 +4436,16 @@
         <v>3.1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N33" t="n">
         <v>2.88</v>
@@ -4460,16 +4460,16 @@
         <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V33" t="n">
         <v>11</v>
@@ -4505,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>34</v>
@@ -5162,16 +5162,16 @@
         <v>2.25</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5180,10 +5180,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5192,19 +5192,19 @@
         <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
         <v>12</v>
       </c>
       <c r="V39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
         <v>21</v>
@@ -5213,16 +5213,16 @@
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H40" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -5302,16 +5302,16 @@
         <v>5.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R40" t="n">
         <v>1.73</v>
@@ -5320,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U40" t="n">
         <v>8</v>
@@ -5338,13 +5338,13 @@
         <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
@@ -5353,19 +5353,19 @@
         <v>151</v>
       </c>
       <c r="AE40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF40" t="n">
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
         <v>81</v>
       </c>
       <c r="AI40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ40" t="n">
         <v>41</v>
@@ -5424,10 +5424,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O41" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5761,13 +5761,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>1.13</v>
@@ -5776,40 +5776,40 @@
         <v>4.5</v>
       </c>
       <c r="L44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.45</v>
       </c>
-      <c r="M44" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U44" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="V44" t="n">
         <v>8.75</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X44" t="n">
         <v>17.5</v>
@@ -5818,13 +5818,13 @@
         <v>45</v>
       </c>
       <c r="Z44" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC44" t="n">
         <v>150</v>
@@ -5833,22 +5833,22 @@
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF44" t="n">
         <v>28</v>
       </c>
       <c r="AG44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ44" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -5883,31 +5883,31 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N45" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5940,7 +5940,7 @@
         <v>29</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
         <v>6.5</v>
@@ -5949,16 +5949,16 @@
         <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
         <v>401</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6005,19 +6005,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I46" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.33</v>
@@ -6026,67 +6026,67 @@
         <v>3.4</v>
       </c>
       <c r="N46" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O46" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="P46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S46" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA46" t="n">
         <v>8.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD46" t="n">
         <v>501</v>
       </c>
       <c r="AE46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH46" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>9.5</v>
       </c>
       <c r="AI46" t="n">
         <v>13</v>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>1.1</v>
@@ -6264,10 +6264,10 @@
         <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N48" t="n">
         <v>2.5</v>
@@ -6276,22 +6276,22 @@
         <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S48" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T48" t="n">
         <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V48" t="n">
         <v>9.5</v>
@@ -6309,13 +6309,13 @@
         <v>6.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="n">
         <v>1250</v>
@@ -6324,7 +6324,7 @@
         <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
@@ -6859,94 +6859,94 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="H53" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M53" t="n">
         <v>3.25</v>
       </c>
-      <c r="J53" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.87</v>
-      </c>
       <c r="N53" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="O53" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S53" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T53" t="n">
         <v>6.7</v>
       </c>
       <c r="U53" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="V53" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="W53" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="X53" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD53" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE53" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AF53" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH53" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AI53" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
@@ -7103,19 +7103,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J55" t="n">
         <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
         <v>1.29</v>
@@ -7142,28 +7142,28 @@
         <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U55" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V55" t="n">
         <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
       </c>
       <c r="Z55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB55" t="n">
         <v>13</v>
@@ -7175,22 +7175,22 @@
         <v>201</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -7225,13 +7225,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7258,13 +7258,13 @@
         <v>2.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U56" t="n">
         <v>8</v>
@@ -7273,7 +7273,7 @@
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X56" t="n">
         <v>15</v>
@@ -7288,13 +7288,13 @@
         <v>7.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE56" t="n">
         <v>11</v>
@@ -7303,10 +7303,10 @@
         <v>21</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI56" t="n">
         <v>34</v>
@@ -7591,55 +7591,55 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K59" t="n">
+        <v>7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T59" t="n">
         <v>7.5</v>
       </c>
-      <c r="L59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T59" t="n">
-        <v>8</v>
-      </c>
       <c r="U59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V59" t="n">
         <v>12</v>
       </c>
       <c r="W59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X59" t="n">
         <v>29</v>
@@ -7648,7 +7648,7 @@
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
@@ -7657,28 +7657,28 @@
         <v>17</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
         <v>351</v>
       </c>
       <c r="AE59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI59" t="n">
         <v>23</v>
       </c>
-      <c r="AI59" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -7972,10 +7972,10 @@
         <v>8</v>
       </c>
       <c r="L62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M62" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
         <v>2.25</v>
@@ -9787,13 +9787,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J77" t="n">
         <v>1.05</v>
@@ -9832,7 +9832,7 @@
         <v>9.5</v>
       </c>
       <c r="V77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W77" t="n">
         <v>17</v>
@@ -9909,13 +9909,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>1.1</v>
@@ -9924,22 +9924,22 @@
         <v>7</v>
       </c>
       <c r="L78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N78" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O78" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P78" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R78" t="n">
         <v>2.25</v>
@@ -9948,16 +9948,16 @@
         <v>1.57</v>
       </c>
       <c r="T78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V78" t="n">
         <v>9.5</v>
       </c>
       <c r="W78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X78" t="n">
         <v>19</v>
@@ -9966,7 +9966,7 @@
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA78" t="n">
         <v>6.5</v>
@@ -9981,10 +9981,10 @@
         <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG78" t="n">
         <v>17</v>
@@ -10040,22 +10040,22 @@
         <v>17</v>
       </c>
       <c r="J79" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N79" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O79" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P79" t="n">
         <v>1.25</v>
@@ -16062,16 +16062,16 @@
         <v>1.25</v>
       </c>
       <c r="H129" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J129" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L129" t="n">
         <v>1.17</v>
@@ -16080,10 +16080,10 @@
         <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O129" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P129" t="n">
         <v>1.29</v>
@@ -16092,10 +16092,10 @@
         <v>3.5</v>
       </c>
       <c r="R129" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S129" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T129" t="n">
         <v>7.5</v>
@@ -16104,7 +16104,7 @@
         <v>6.5</v>
       </c>
       <c r="V129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W129" t="n">
         <v>7.5</v>
@@ -16128,7 +16128,7 @@
         <v>81</v>
       </c>
       <c r="AD129" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE129" t="n">
         <v>23</v>
@@ -16181,13 +16181,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H130" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J130" t="n">
         <v>1.05</v>
@@ -16196,16 +16196,16 @@
         <v>11</v>
       </c>
       <c r="L130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O130" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -16232,13 +16232,13 @@
         <v>12</v>
       </c>
       <c r="X130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y130" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA130" t="n">
         <v>7.5</v>
@@ -16253,7 +16253,7 @@
         <v>351</v>
       </c>
       <c r="AE130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF130" t="n">
         <v>26</v>
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H133" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I133" t="n">
         <v>5.9</v>
@@ -16550,16 +16550,16 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M133" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N133" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O133" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="P133" t="n">
         <v>1.39</v>
@@ -16568,16 +16568,16 @@
         <v>2.57</v>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S133" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T133" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="U133" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V133" t="n">
         <v>8.25</v>
@@ -16589,25 +16589,25 @@
         <v>11.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z133" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA133" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB133" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE133" t="n">
         <v>18</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>17</v>
       </c>
       <c r="AF133" t="n">
         <v>37</v>
@@ -16622,7 +16622,7 @@
         <v>60</v>
       </c>
       <c r="AJ133" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
@@ -16660,24 +16660,24 @@
         <v>1.7</v>
       </c>
       <c r="H134" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I134" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M134" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N134" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O134" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P134" t="n">
         <v>1.39</v>
@@ -16686,43 +16686,43 @@
         <v>2.55</v>
       </c>
       <c r="R134" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S134" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T134" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="U134" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V134" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W134" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X134" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y134" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z134" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA134" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB134" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC134" t="n">
         <v>60</v>
       </c>
       <c r="AD134" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE134" t="n">
         <v>14</v>
@@ -16781,33 +16781,33 @@
         <v>2.95</v>
       </c>
       <c r="I135" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M135" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="N135" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="O135" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P135" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R135" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S135" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T135" t="n">
         <v>7.7</v>
@@ -16828,37 +16828,37 @@
         <v>40</v>
       </c>
       <c r="Z135" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA135" t="n">
         <v>5.8</v>
       </c>
       <c r="AB135" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC135" t="n">
         <v>90</v>
       </c>
       <c r="AD135" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE135" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AF135" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG135" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH135" t="n">
         <v>26</v>
       </c>
       <c r="AI135" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ135" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136">
@@ -16893,13 +16893,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
         <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -16924,19 +16924,19 @@
         <v>2.15</v>
       </c>
       <c r="T136" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U136" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="V136" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W136" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X136" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y136" t="n">
         <v>28</v>
@@ -16957,19 +16957,19 @@
         <v>300</v>
       </c>
       <c r="AE136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG136" t="n">
         <v>8.5</v>
       </c>
       <c r="AH136" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ136" t="n">
         <v>22</v>
@@ -17010,10 +17010,10 @@
         <v>1.91</v>
       </c>
       <c r="H137" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I137" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -17036,16 +17036,16 @@
         <v>2.57</v>
       </c>
       <c r="R137" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S137" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T137" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U137" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V137" t="n">
         <v>8.25</v>
@@ -17063,10 +17063,10 @@
         <v>10.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB137" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC137" t="n">
         <v>55</v>
@@ -17075,16 +17075,16 @@
         <v>400</v>
       </c>
       <c r="AE137" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF137" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG137" t="n">
         <v>12.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI137" t="n">
         <v>35</v>
@@ -17125,19 +17125,19 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H138" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I138" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J138" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L138" t="n">
         <v>1.36</v>
@@ -17146,10 +17146,10 @@
         <v>3</v>
       </c>
       <c r="N138" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P138" t="n">
         <v>1.5</v>
@@ -17164,7 +17164,7 @@
         <v>1.67</v>
       </c>
       <c r="T138" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U138" t="n">
         <v>7</v>
@@ -17173,10 +17173,10 @@
         <v>9</v>
       </c>
       <c r="W138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y138" t="n">
         <v>34</v>
@@ -17194,22 +17194,22 @@
         <v>67</v>
       </c>
       <c r="AD138" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE138" t="n">
         <v>12</v>
       </c>
       <c r="AF138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG138" t="n">
         <v>19</v>
       </c>
       <c r="AH138" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI138" t="n">
         <v>51</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>41</v>
       </c>
       <c r="AJ138" t="n">
         <v>51</v>
@@ -17247,19 +17247,19 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H139" t="n">
         <v>3.6</v>
       </c>
       <c r="I139" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J139" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K139" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L139" t="n">
         <v>1.36</v>
@@ -17274,10 +17274,10 @@
         <v>1.67</v>
       </c>
       <c r="P139" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R139" t="n">
         <v>2.1</v>
@@ -17286,7 +17286,7 @@
         <v>1.67</v>
       </c>
       <c r="T139" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U139" t="n">
         <v>7</v>
@@ -17319,10 +17319,10 @@
         <v>1250</v>
       </c>
       <c r="AE139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF139" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG139" t="n">
         <v>17</v>
@@ -17491,13 +17491,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J141" t="n">
         <v>1.05</v>
@@ -17506,16 +17506,16 @@
         <v>11</v>
       </c>
       <c r="L141" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M141" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O141" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17530,28 +17530,28 @@
         <v>2</v>
       </c>
       <c r="T141" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y141" t="n">
         <v>34</v>
       </c>
       <c r="Z141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA141" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB141" t="n">
         <v>15</v>
@@ -17566,19 +17566,19 @@
         <v>8</v>
       </c>
       <c r="AF141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG141" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH141" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ141" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
@@ -17634,10 +17634,10 @@
         <v>3.75</v>
       </c>
       <c r="N142" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O142" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P142" t="n">
         <v>1.4</v>
@@ -19214,16 +19214,16 @@
         <v>15</v>
       </c>
       <c r="L155" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M155" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O155" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P155" t="n">
         <v>1.3</v>
@@ -19262,16 +19262,16 @@
         <v>8.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC155" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD155" t="n">
         <v>201</v>
       </c>
       <c r="AE155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF155" t="n">
         <v>8</v>
@@ -19286,7 +19286,7 @@
         <v>12</v>
       </c>
       <c r="AJ155" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
@@ -22981,25 +22981,25 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I186" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J186" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K186" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L186" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M186" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N186" t="n">
         <v>3.1</v>
@@ -23020,13 +23020,13 @@
         <v>1.53</v>
       </c>
       <c r="T186" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U186" t="n">
+        <v>10</v>
+      </c>
+      <c r="V186" t="n">
         <v>11</v>
-      </c>
-      <c r="V186" t="n">
-        <v>12</v>
       </c>
       <c r="W186" t="n">
         <v>26</v>
@@ -23047,7 +23047,7 @@
         <v>21</v>
       </c>
       <c r="AC186" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD186" t="n">
         <v>101</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H209" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I209" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J209" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K209" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L209" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M209" t="n">
         <v>3.25</v>
@@ -25840,13 +25840,13 @@
         <v>51</v>
       </c>
       <c r="Z209" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB209" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC209" t="n">
         <v>67</v>
@@ -25861,7 +25861,7 @@
         <v>7.5</v>
       </c>
       <c r="AG209" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH209" t="n">
         <v>13</v>
@@ -26030,46 +26030,46 @@
         <v>2.35</v>
       </c>
       <c r="H211" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I211" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J211" t="n">
         <v>1.02</v>
       </c>
       <c r="K211" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L211" t="n">
         <v>1.13</v>
       </c>
       <c r="M211" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N211" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="O211" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="P211" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q211" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R211" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S211" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T211" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V211" t="n">
         <v>9.5</v>
@@ -26078,28 +26078,28 @@
         <v>23</v>
       </c>
       <c r="X211" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y211" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z211" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA211" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB211" t="n">
         <v>10</v>
       </c>
       <c r="AC211" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD211" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF211" t="n">
         <v>19</v>
@@ -26108,13 +26108,13 @@
         <v>11</v>
       </c>
       <c r="AH211" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI211" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ211" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ211" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="212">
@@ -26158,13 +26158,13 @@
         <v>2.45</v>
       </c>
       <c r="J212" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K212" t="n">
         <v>9.5</v>
       </c>
       <c r="L212" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M212" t="n">
         <v>3.5</v>
@@ -26271,22 +26271,22 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>3.4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J213" t="n">
         <v>1.03</v>
       </c>
       <c r="K213" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L213" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M213" t="n">
         <v>4.33</v>
@@ -26319,7 +26319,7 @@
         <v>9.5</v>
       </c>
       <c r="W213" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X213" t="n">
         <v>17</v>
@@ -26334,7 +26334,7 @@
         <v>6.5</v>
       </c>
       <c r="AB213" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC213" t="n">
         <v>41</v>
@@ -26352,7 +26352,7 @@
         <v>11</v>
       </c>
       <c r="AH213" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI213" t="n">
         <v>21</v>
@@ -26402,13 +26402,13 @@
         <v>2.7</v>
       </c>
       <c r="J214" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K214" t="n">
         <v>13</v>
       </c>
       <c r="L214" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M214" t="n">
         <v>4</v>
@@ -26515,22 +26515,22 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H215" t="n">
         <v>3.5</v>
       </c>
       <c r="I215" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J215" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K215" t="n">
         <v>13</v>
       </c>
       <c r="L215" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M215" t="n">
         <v>4.33</v>
@@ -26566,7 +26566,7 @@
         <v>17</v>
       </c>
       <c r="X215" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y215" t="n">
         <v>21</v>
@@ -26590,7 +26590,7 @@
         <v>15</v>
       </c>
       <c r="AF215" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG215" t="n">
         <v>13</v>
@@ -26646,22 +26646,22 @@
         <v>3.6</v>
       </c>
       <c r="J216" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K216" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L216" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M216" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N216" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O216" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P216" t="n">
         <v>1.29</v>
@@ -26703,7 +26703,7 @@
         <v>11</v>
       </c>
       <c r="AC216" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD216" t="n">
         <v>101</v>
@@ -26774,16 +26774,16 @@
         <v>10</v>
       </c>
       <c r="L217" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M217" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N217" t="n">
         <v>2.05</v>
       </c>
       <c r="O217" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P217" t="n">
         <v>1.44</v>
@@ -26792,10 +26792,10 @@
         <v>2.63</v>
       </c>
       <c r="R217" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S217" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T217" t="n">
         <v>6.5</v>
@@ -26881,13 +26881,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H218" t="n">
         <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J218" t="n">
         <v>1.04</v>
@@ -26902,10 +26902,10 @@
         <v>4</v>
       </c>
       <c r="N218" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O218" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P218" t="n">
         <v>1.36</v>
@@ -26914,7 +26914,7 @@
         <v>3</v>
       </c>
       <c r="R218" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S218" t="n">
         <v>2.2</v>
@@ -26923,7 +26923,7 @@
         <v>9.5</v>
       </c>
       <c r="U218" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V218" t="n">
         <v>9.5</v>
@@ -26932,7 +26932,7 @@
         <v>23</v>
       </c>
       <c r="X218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y218" t="n">
         <v>23</v>
@@ -27003,13 +27003,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H219" t="n">
         <v>3.5</v>
       </c>
       <c r="I219" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J219" t="n">
         <v>1.04</v>
@@ -27018,16 +27018,16 @@
         <v>13</v>
       </c>
       <c r="L219" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M219" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N219" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O219" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P219" t="n">
         <v>1.33</v>
@@ -27036,7 +27036,7 @@
         <v>3.25</v>
       </c>
       <c r="R219" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S219" t="n">
         <v>2.2</v>
@@ -27054,10 +27054,10 @@
         <v>17</v>
       </c>
       <c r="X219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z219" t="n">
         <v>13</v>
@@ -27066,7 +27066,7 @@
         <v>7</v>
       </c>
       <c r="AB219" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC219" t="n">
         <v>41</v>
@@ -27075,10 +27075,10 @@
         <v>151</v>
       </c>
       <c r="AE219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF219" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG219" t="n">
         <v>13</v>
@@ -27125,13 +27125,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H220" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I220" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J220" t="n">
         <v>1.04</v>
@@ -27146,10 +27146,10 @@
         <v>4</v>
       </c>
       <c r="N220" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O220" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P220" t="n">
         <v>1.33</v>
@@ -27158,10 +27158,10 @@
         <v>3.25</v>
       </c>
       <c r="R220" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S220" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T220" t="n">
         <v>7.5</v>
@@ -27179,13 +27179,13 @@
         <v>12</v>
       </c>
       <c r="Y220" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z220" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA220" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB220" t="n">
         <v>17</v>
@@ -27203,7 +27203,7 @@
         <v>29</v>
       </c>
       <c r="AG220" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH220" t="n">
         <v>67</v>
@@ -27247,13 +27247,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H221" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I221" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J221" t="n">
         <v>1.04</v>
@@ -27295,16 +27295,16 @@
         <v>10</v>
       </c>
       <c r="W221" t="n">
+        <v>29</v>
+      </c>
+      <c r="X221" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y221" t="n">
         <v>26</v>
       </c>
-      <c r="X221" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y221" t="n">
-        <v>23</v>
-      </c>
       <c r="Z221" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA221" t="n">
         <v>7</v>
@@ -27316,19 +27316,19 @@
         <v>41</v>
       </c>
       <c r="AD221" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE221" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF221" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG221" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH221" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI221" t="n">
         <v>19</v>
@@ -27390,10 +27390,10 @@
         <v>4</v>
       </c>
       <c r="N222" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O222" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P222" t="n">
         <v>1.33</v>
@@ -27491,19 +27491,19 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H223" t="n">
         <v>3.4</v>
       </c>
       <c r="I223" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J223" t="n">
         <v>1.04</v>
       </c>
       <c r="K223" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L223" t="n">
         <v>1.22</v>
@@ -27512,10 +27512,10 @@
         <v>4</v>
       </c>
       <c r="N223" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O223" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P223" t="n">
         <v>1.36</v>
@@ -27539,7 +27539,7 @@
         <v>10</v>
       </c>
       <c r="W223" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X223" t="n">
         <v>19</v>
@@ -27563,7 +27563,7 @@
         <v>151</v>
       </c>
       <c r="AE223" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF223" t="n">
         <v>15</v>
@@ -27572,7 +27572,7 @@
         <v>10</v>
       </c>
       <c r="AH223" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI223" t="n">
         <v>21</v>
@@ -27634,10 +27634,10 @@
         <v>5.5</v>
       </c>
       <c r="N224" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O224" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P224" t="n">
         <v>1.29</v>
@@ -27735,13 +27735,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="H225" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I225" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="J225" t="n">
         <v>1.08</v>
@@ -27768,61 +27768,61 @@
         <v>2.5</v>
       </c>
       <c r="R225" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S225" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T225" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="U225" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="V225" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="W225" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="X225" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y225" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z225" t="n">
         <v>6.5</v>
       </c>
       <c r="AA225" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB225" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC225" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD225" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE225" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF225" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG225" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AH225" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI225" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AJ225" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -27857,13 +27857,13 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H226" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I226" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="J226" t="n">
         <v>1.04</v>
@@ -27884,40 +27884,40 @@
         <v>2.1</v>
       </c>
       <c r="P226" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q226" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R226" t="n">
         <v>1.57</v>
       </c>
       <c r="S226" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T226" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U226" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V226" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W226" t="n">
+        <v>27</v>
+      </c>
+      <c r="X226" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y226" t="n">
         <v>24</v>
-      </c>
-      <c r="X226" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y226" t="n">
-        <v>23</v>
       </c>
       <c r="Z226" t="n">
         <v>8.25</v>
       </c>
       <c r="AA226" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB226" t="n">
         <v>12</v>
@@ -27926,25 +27926,25 @@
         <v>45</v>
       </c>
       <c r="AD226" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE226" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF226" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG226" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH226" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI226" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ226" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227">
@@ -27979,94 +27979,94 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H227" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I227" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J227" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K227" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L227" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M227" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="N227" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O227" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P227" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R227" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S227" t="n">
         <v>1.82</v>
       </c>
-      <c r="S227" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T227" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U227" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V227" t="n">
         <v>10.25</v>
       </c>
       <c r="W227" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X227" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y227" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ227" t="n">
         <v>35</v>
-      </c>
-      <c r="Z227" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA227" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC227" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD227" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE227" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF227" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AG227" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH227" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI227" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ227" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -28101,19 +28101,19 @@
         </is>
       </c>
       <c r="G228" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I228" t="n">
         <v>2.35</v>
-      </c>
-      <c r="H228" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2.8</v>
       </c>
       <c r="J228" t="n">
         <v>1.08</v>
       </c>
       <c r="K228" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L228" t="n">
         <v>1.38</v>
@@ -28134,61 +28134,61 @@
         <v>2.5</v>
       </c>
       <c r="R228" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S228" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T228" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="U228" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="V228" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W228" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="X228" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y228" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z228" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA228" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB228" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC228" t="n">
         <v>80</v>
       </c>
       <c r="AD228" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE228" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AF228" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG228" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH228" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ228" t="n">
         <v>35</v>
-      </c>
-      <c r="AI228" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ228" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="229">
@@ -28223,13 +28223,13 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I229" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J229" t="n">
         <v>1.09</v>
@@ -28250,31 +28250,31 @@
         <v>1.6</v>
       </c>
       <c r="P229" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R229" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S229" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T229" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U229" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V229" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W229" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="X229" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y229" t="n">
         <v>37</v>
@@ -28283,10 +28283,10 @@
         <v>6.2</v>
       </c>
       <c r="AA229" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB229" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC229" t="n">
         <v>100</v>
@@ -28295,22 +28295,22 @@
         <v>900</v>
       </c>
       <c r="AE229" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF229" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG229" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH229" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI229" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ229" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230">
@@ -28348,46 +28348,46 @@
         <v>2.87</v>
       </c>
       <c r="H230" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I230" t="n">
         <v>2.15</v>
       </c>
       <c r="J230" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K230" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L230" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M230" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="N230" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O230" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P230" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R230" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S230" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T230" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U230" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V230" t="n">
         <v>10.5</v>
@@ -28396,43 +28396,43 @@
         <v>35</v>
       </c>
       <c r="X230" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y230" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z230" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA230" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB230" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC230" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD230" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE230" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF230" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG230" t="n">
         <v>8.75</v>
       </c>
       <c r="AH230" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI230" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ230" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
@@ -28589,46 +28589,46 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H232" t="n">
         <v>3.4</v>
       </c>
       <c r="I232" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J232" t="n">
         <v>1.06</v>
       </c>
       <c r="K232" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L232" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M232" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N232" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O232" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P232" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R232" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S232" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T232" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="U232" t="n">
         <v>22</v>
@@ -28646,28 +28646,28 @@
         <v>40</v>
       </c>
       <c r="Z232" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA232" t="n">
         <v>6.7</v>
       </c>
       <c r="AB232" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC232" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD232" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE232" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AF232" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG232" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH232" t="n">
         <v>15.5</v>
@@ -28676,7 +28676,7 @@
         <v>14</v>
       </c>
       <c r="AJ232" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233">
@@ -28732,7 +28732,7 @@
         <v>3.4</v>
       </c>
       <c r="N233" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O233" t="n">
         <v>1.9</v>
@@ -28750,10 +28750,10 @@
         <v>2.05</v>
       </c>
       <c r="T233" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U233" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V233" t="n">
         <v>10.25</v>
@@ -28765,7 +28765,7 @@
         <v>23</v>
       </c>
       <c r="Y233" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z233" t="n">
         <v>7.7</v>
@@ -28783,10 +28783,10 @@
         <v>400</v>
       </c>
       <c r="AE233" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF233" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG233" t="n">
         <v>9</v>
@@ -28795,10 +28795,10 @@
         <v>23</v>
       </c>
       <c r="AI233" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ233" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
@@ -29077,13 +29077,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H236" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="I236" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -29106,61 +29106,61 @@
         <v>2.57</v>
       </c>
       <c r="R236" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="S236" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T236" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U236" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="V236" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W236" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X236" t="n">
         <v>12.5</v>
       </c>
       <c r="Y236" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z236" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA236" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB236" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC236" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD236" t="n">
         <v>101</v>
       </c>
       <c r="AE236" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF236" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG236" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH236" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AI236" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ236" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="237">
